--- a/FSP_Exchange/data/Trisomy/3_FMF_UK_A6_cv__ds_afphcgue3i_3A6.xlsx
+++ b/FSP_Exchange/data/Trisomy/3_FMF_UK_A6_cv__ds_afphcgue3i_3A6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glohezic\DEV\CLINICAL_VALIDATIONS\2T_TRISO\3_FMF_UK_A1_to_A6\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/Trisomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701C692-3D87-4422-9955-C093029E6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5701C692-3D87-4422-9955-C093029E6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A56191-C6CF-4D1A-B92A-F9F5443471AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FSP output'!$A$1:$K$516</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1822,7 +1835,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1878,12 +1891,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2187,9 +2211,9 @@
       <selection activeCell="P524" sqref="P524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>217.45799620301071</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2492,7 +2516,7 @@
         <v>186.79507337989179</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2566,7 +2590,7 @@
         <v>360.77404024364512</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2646,7 +2670,7 @@
         <v>516.03166456723795</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2720,7 +2744,7 @@
         <v>254.62333484209421</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2794,7 +2818,7 @@
         <v>69.224372547787482</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2898,7 @@
         <v>113.9890058248105</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2948,7 +2972,7 @@
         <v>79.20355834364203</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3022,7 +3046,7 @@
         <v>382.56307768846528</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3096,7 +3120,7 @@
         <v>246.94662092091011</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3170,7 +3194,7 @@
         <v>315.18047394878772</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3244,7 +3268,7 @@
         <v>94.686201056697982</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3318,7 +3342,7 @@
         <v>241.19856205117051</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3392,7 +3416,7 @@
         <v>172.33609212022961</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>233.35995461487249</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3540,7 +3564,7 @@
         <v>141.43494880758129</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3614,7 +3638,7 @@
         <v>214.40471037600679</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3688,7 +3712,7 @@
         <v>112.7345746697611</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3762,7 +3786,7 @@
         <v>197.37451908921909</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -3836,7 +3860,7 @@
         <v>306.52824262571028</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3910,7 +3934,7 @@
         <v>132.68952717803211</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3984,7 +4008,7 @@
         <v>210.25932508519921</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4058,7 +4082,7 @@
         <v>103.44714517804201</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4132,7 +4156,7 @@
         <v>239.26997655195879</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4206,7 +4230,7 @@
         <v>137.6392453792873</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -4280,7 +4304,7 @@
         <v>87.845376633976812</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>408.40281618875701</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -4428,7 +4452,7 @@
         <v>282.45009860038988</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -4502,7 +4526,7 @@
         <v>120.6861506873785</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -4576,7 +4600,7 @@
         <v>278.41122920904542</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4650,7 +4674,7 @@
         <v>392.54398255200272</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -4724,7 +4748,7 @@
         <v>304.65372023189627</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -4798,7 +4822,7 @@
         <v>223.93166742332079</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -4872,7 +4896,7 @@
         <v>84.150315338091403</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -4946,7 +4970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -5020,7 +5044,7 @@
         <v>169.9613555810196</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5094,7 +5118,7 @@
         <v>503.77629104174122</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -5168,7 +5192,7 @@
         <v>95.883509090555734</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -5242,7 +5266,7 @@
         <v>130.87653945836499</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -5316,7 +5340,7 @@
         <v>235.18993793582291</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -5390,7 +5414,7 @@
         <v>196.65396703690811</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -5464,7 +5488,7 @@
         <v>67.030115171184406</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5538,7 +5562,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -5612,7 +5636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -5686,7 +5710,7 @@
         <v>345.70127396749632</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -5760,7 +5784,7 @@
         <v>73.200845542703789</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -5834,7 +5858,7 @@
         <v>156.16579244453001</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -5908,7 +5932,7 @@
         <v>166.08263386728899</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -5982,7 +6006,7 @@
         <v>169.5425909202915</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -6056,7 +6080,7 @@
         <v>379.98161748467822</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -6130,7 +6154,7 @@
         <v>200.46199918943859</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6204,7 +6228,7 @@
         <v>94.586044481977012</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -6278,7 +6302,7 @@
         <v>342.24366263910139</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6352,7 +6376,7 @@
         <v>211.8422640880647</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6426,7 +6450,7 @@
         <v>118.2232241760735</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -6500,7 +6524,7 @@
         <v>139.57647780052889</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -6574,7 +6598,7 @@
         <v>102.8983688057283</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -6648,7 +6672,7 @@
         <v>78.094605027675357</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -6722,7 +6746,7 @@
         <v>147.9895977118214</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6796,7 +6820,7 @@
         <v>82.317018446116521</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -6870,7 +6894,7 @@
         <v>165.97101861651609</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -6944,7 +6968,7 @@
         <v>190.6277527397103</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -7018,7 +7042,7 @@
         <v>128.87981492048971</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -7092,7 +7116,7 @@
         <v>179.95486472916329</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -7166,7 +7190,7 @@
         <v>271.96203537993767</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -7240,7 +7264,7 @@
         <v>160.30493820971631</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -7314,7 +7338,7 @@
         <v>275.60853803190452</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -7388,7 +7412,7 @@
         <v>208.44296887080139</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -7462,7 +7486,7 @@
         <v>278.91438506333787</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -7536,7 +7560,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -7610,7 +7634,7 @@
         <v>208.7469249599138</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7684,7 +7708,7 @@
         <v>540.06232034867583</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -7758,7 +7782,7 @@
         <v>53.325468573053932</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -7832,7 +7856,7 @@
         <v>68.337473300743611</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>219.4037651914131</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -7980,7 +8004,7 @@
         <v>261.63496617652521</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -8054,7 +8078,7 @@
         <v>94.51643649507885</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -8128,7 +8152,7 @@
         <v>201.66468207347</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -8202,7 +8226,7 @@
         <v>294.70158667342719</v>
       </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -8276,7 +8300,7 @@
         <v>153.4614476260337</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -8350,7 +8374,7 @@
         <v>130.82931718259181</v>
       </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -8424,7 +8448,7 @@
         <v>231.90089478176941</v>
       </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -8498,7 +8522,7 @@
         <v>201.76758479527621</v>
       </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -8572,7 +8596,7 @@
         <v>397.54968402567363</v>
       </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -8646,7 +8670,7 @@
         <v>108.6553498036818</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -8720,7 +8744,7 @@
         <v>184.2571016639566</v>
       </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -8794,7 +8818,7 @@
         <v>93.837402202746134</v>
       </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -8868,7 +8892,7 @@
         <v>262.32015648972731</v>
       </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -8942,7 +8966,7 @@
         <v>186.43668922978731</v>
       </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -9016,7 +9040,7 @@
         <v>182.20200626471879</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -9090,7 +9114,7 @@
         <v>68.211538610895971</v>
       </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -9164,7 +9188,7 @@
         <v>139.27578543073031</v>
       </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -9238,7 +9262,7 @@
         <v>141.88505799877569</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -9312,7 +9336,7 @@
         <v>102.01809262435189</v>
       </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -9386,7 +9410,7 @@
         <v>120.4845723750867</v>
       </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -9460,7 +9484,7 @@
         <v>161.35918427919509</v>
       </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -9534,7 +9558,7 @@
         <v>244.25400914904299</v>
       </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -9608,7 +9632,7 @@
         <v>71.451283453769193</v>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -9682,7 +9706,7 @@
         <v>667.82135317124232</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -9756,7 +9780,7 @@
         <v>247.97279363535009</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -9830,7 +9854,7 @@
         <v>255.9769706486444</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -9904,7 +9928,7 @@
         <v>312.49056253411118</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -9978,7 +10002,7 @@
         <v>142.44142826177361</v>
       </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -10052,7 +10076,7 @@
         <v>88.056941107360416</v>
       </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -10126,7 +10150,7 @@
         <v>201.19744648643001</v>
       </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -10200,7 +10224,7 @@
         <v>267.25547138611739</v>
       </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -10274,7 +10298,7 @@
         <v>175.98250610912899</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -10348,7 +10372,7 @@
         <v>156.93513105549309</v>
       </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -10422,7 +10446,7 @@
         <v>174.7200822128851</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -10496,7 +10520,7 @@
         <v>92.247722447492563</v>
       </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -10570,7 +10594,7 @@
         <v>233.8767858744086</v>
       </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -10644,7 +10668,7 @@
         <v>120.61024992180459</v>
       </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -10718,7 +10742,7 @@
         <v>137.3416028688371</v>
       </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -10792,7 +10816,7 @@
         <v>185.67168011816511</v>
       </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -10866,7 +10890,7 @@
         <v>398.94435873737842</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -10940,7 +10964,7 @@
         <v>267.43543545771809</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -11014,7 +11038,7 @@
         <v>105.7587647732897</v>
       </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -11088,7 +11112,7 @@
         <v>239.58346436512011</v>
       </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -11162,7 +11186,7 @@
         <v>148.8587497343473</v>
       </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -11236,7 +11260,7 @@
         <v>179.2720099864226</v>
       </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>182</v>
       </c>
@@ -11310,7 +11334,7 @@
         <v>205.42741380320729</v>
       </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -11384,7 +11408,7 @@
         <v>210.91062631899649</v>
       </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -11458,7 +11482,7 @@
         <v>374.1018616516148</v>
       </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>185</v>
       </c>
@@ -11532,7 +11556,7 @@
         <v>138.2831253887708</v>
       </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -11606,7 +11630,7 @@
         <v>119.61471429892759</v>
       </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -11680,7 +11704,7 @@
         <v>155.23088377439331</v>
       </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -11754,7 +11778,7 @@
         <v>130.93804944211169</v>
       </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -11828,7 +11852,7 @@
         <v>400.80127979281559</v>
       </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -11902,7 +11926,7 @@
         <v>72.884201555718576</v>
       </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -11976,7 +12000,7 @@
         <v>253.92968003293129</v>
       </c>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -12050,7 +12074,7 @@
         <v>313.06776137928989</v>
       </c>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -12124,7 +12148,7 @@
         <v>136.01316295788459</v>
       </c>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -12198,7 +12222,7 @@
         <v>118.7173201310718</v>
       </c>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -12272,7 +12296,7 @@
         <v>90.195224535646176</v>
       </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -12346,7 +12370,7 @@
         <v>111.0046958890654</v>
       </c>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -12420,7 +12444,7 @@
         <v>254.06744859753039</v>
       </c>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -12494,7 +12518,7 @@
         <v>327.36610621048112</v>
       </c>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -12568,7 +12592,7 @@
         <v>288.55031434874002</v>
       </c>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -12642,7 +12666,7 @@
         <v>311.89546611734067</v>
       </c>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -12716,7 +12740,7 @@
         <v>93.853217249353818</v>
       </c>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -12790,7 +12814,7 @@
         <v>138.86844385073181</v>
       </c>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -12864,7 +12888,7 @@
         <v>619.54375590878647</v>
       </c>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -12938,7 +12962,7 @@
         <v>187.05872248067709</v>
       </c>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -13012,7 +13036,7 @@
         <v>297.84418596605428</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -13086,7 +13110,7 @@
         <v>165.1607697159323</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -13160,7 +13184,7 @@
         <v>68.78097086610893</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -13234,7 +13258,7 @@
         <v>183.79640166826351</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -13308,7 +13332,7 @@
         <v>58.02530284405465</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -13382,7 +13406,7 @@
         <v>244.09522259876471</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -13456,7 +13480,7 @@
         <v>246.9094768636815</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -13530,7 +13554,7 @@
         <v>354.04923241379271</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -13604,7 +13628,7 @@
         <v>228.57997151779651</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -13678,7 +13702,7 @@
         <v>151.86724426560889</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -13752,7 +13776,7 @@
         <v>114.3743842329751</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -13826,7 +13850,7 @@
         <v>175.57864343091231</v>
       </c>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -13900,7 +13924,7 @@
         <v>149.21594729580039</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -13974,7 +13998,7 @@
         <v>171.65086706916429</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -14048,7 +14072,7 @@
         <v>358.39181528507282</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -14122,7 +14146,7 @@
         <v>160.35086676016039</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -14196,7 +14220,7 @@
         <v>379.29841639230602</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -14270,7 +14294,7 @@
         <v>194.50935344550641</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -14344,7 +14368,7 @@
         <v>249.3783070418902</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -14418,7 +14442,7 @@
         <v>63.106457743918398</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -14492,7 +14516,7 @@
         <v>427.2429883578817</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -14566,7 +14590,7 @@
         <v>131.22634609303091</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -14640,7 +14664,7 @@
         <v>121.35584255851241</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>228</v>
       </c>
@@ -14714,7 +14738,7 @@
         <v>265.22909745870118</v>
       </c>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>229</v>
       </c>
@@ -14788,7 +14812,7 @@
         <v>258.05347438402117</v>
       </c>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -14862,7 +14886,7 @@
         <v>132.5489108063627</v>
       </c>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -14936,7 +14960,7 @@
         <v>73.343136417328537</v>
       </c>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -15010,7 +15034,7 @@
         <v>248.3777153940168</v>
       </c>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>233</v>
       </c>
@@ -15084,7 +15108,7 @@
         <v>147.34112507000549</v>
       </c>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>234</v>
       </c>
@@ -15158,7 +15182,7 @@
         <v>201.42550180996849</v>
       </c>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>235</v>
       </c>
@@ -15232,7 +15256,7 @@
         <v>149.62799516776889</v>
       </c>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -15306,7 +15330,7 @@
         <v>128.4697246105047</v>
       </c>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>237</v>
       </c>
@@ -15380,7 +15404,7 @@
         <v>178.86497006685619</v>
       </c>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>238</v>
       </c>
@@ -15454,7 +15478,7 @@
         <v>181.84663456005441</v>
       </c>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -15528,7 +15552,7 @@
         <v>53.58846181273622</v>
       </c>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>240</v>
       </c>
@@ -15602,7 +15626,7 @@
         <v>96.358719727067921</v>
       </c>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>241</v>
       </c>
@@ -15676,7 +15700,7 @@
         <v>77.061214850002429</v>
       </c>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>242</v>
       </c>
@@ -15750,7 +15774,7 @@
         <v>67.655168347898041</v>
       </c>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -15824,7 +15848,7 @@
         <v>202.65827145361621</v>
       </c>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>244</v>
       </c>
@@ -15898,7 +15922,7 @@
         <v>226.97440555579479</v>
       </c>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -15972,7 +15996,7 @@
         <v>128.16255260982129</v>
       </c>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>246</v>
       </c>
@@ -16046,7 +16070,7 @@
         <v>237.81833028200489</v>
       </c>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>247</v>
       </c>
@@ -16120,7 +16144,7 @@
         <v>292.42487130407397</v>
       </c>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
@@ -16194,7 +16218,7 @@
         <v>90.67110468445405</v>
       </c>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -16268,7 +16292,7 @@
         <v>85.258388904848076</v>
       </c>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -16342,7 +16366,7 @@
         <v>168.97633590642809</v>
       </c>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>251</v>
       </c>
@@ -16416,7 +16440,7 @@
         <v>185.1849028403239</v>
       </c>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -16490,7 +16514,7 @@
         <v>126.2353792178761</v>
       </c>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>253</v>
       </c>
@@ -16564,7 +16588,7 @@
         <v>227.56537244682181</v>
       </c>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>254</v>
       </c>
@@ -16638,7 +16662,7 @@
         <v>99.950767586207391</v>
       </c>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -16712,7 +16736,7 @@
         <v>121.4981123656115</v>
       </c>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -16786,7 +16810,7 @@
         <v>119.7298010411467</v>
       </c>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -16860,7 +16884,7 @@
         <v>123.41963732849079</v>
       </c>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -16934,7 +16958,7 @@
         <v>69.67342265853199</v>
       </c>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -17008,7 +17032,7 @@
         <v>339.48475806719227</v>
       </c>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -17082,7 +17106,7 @@
         <v>61.902275755555301</v>
       </c>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -17156,7 +17180,7 @@
         <v>381.02824779375902</v>
       </c>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -17230,7 +17254,7 @@
         <v>63.992162098617342</v>
       </c>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -17304,7 +17328,7 @@
         <v>261.96748269992082</v>
       </c>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -17378,7 +17402,7 @@
         <v>64.047587308827161</v>
       </c>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>265</v>
       </c>
@@ -17452,7 +17476,7 @@
         <v>266.78382755910911</v>
       </c>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -17526,7 +17550,7 @@
         <v>160.51322403152389</v>
       </c>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -17600,7 +17624,7 @@
         <v>338.26487959054958</v>
       </c>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -17674,7 +17698,7 @@
         <v>394.09730054514398</v>
       </c>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -17748,7 +17772,7 @@
         <v>628.39060793335989</v>
       </c>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -17822,7 +17846,7 @@
         <v>113.2217516767009</v>
       </c>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -17902,7 +17926,7 @@
         <v>103.1453072498293</v>
       </c>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -17982,7 +18006,7 @@
         <v>260.29801888411049</v>
       </c>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -18056,7 +18080,7 @@
         <v>171.4616446954544</v>
       </c>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -18130,7 +18154,7 @@
         <v>369.8796609248032</v>
       </c>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -18204,7 +18228,7 @@
         <v>120.0650410669456</v>
       </c>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -18278,7 +18302,7 @@
         <v>229.68101344988841</v>
       </c>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -18352,7 +18376,7 @@
         <v>306.6652670330144</v>
       </c>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -18426,7 +18450,7 @@
         <v>132.01160399146241</v>
       </c>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -18500,7 +18524,7 @@
         <v>159.78492970883059</v>
       </c>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -18574,7 +18598,7 @@
         <v>152.25643829711299</v>
       </c>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>281</v>
       </c>
@@ -18648,7 +18672,7 @@
         <v>294.24331243649931</v>
       </c>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>282</v>
       </c>
@@ -18722,7 +18746,7 @@
         <v>139.2242948818878</v>
       </c>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -18796,7 +18820,7 @@
         <v>340.44781522293999</v>
       </c>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>284</v>
       </c>
@@ -18867,7 +18891,7 @@
         <v>71.446323331612916</v>
       </c>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>285</v>
       </c>
@@ -18941,7 +18965,7 @@
         <v>91.338678394688216</v>
       </c>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>286</v>
       </c>
@@ -19015,7 +19039,7 @@
         <v>157.43306505648781</v>
       </c>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -19089,7 +19113,7 @@
         <v>206.69901639668359</v>
       </c>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>288</v>
       </c>
@@ -19163,7 +19187,7 @@
         <v>131.63351227085909</v>
       </c>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -19237,7 +19261,7 @@
         <v>94.227212675570115</v>
       </c>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>290</v>
       </c>
@@ -19311,7 +19335,7 @@
         <v>170.1886299947117</v>
       </c>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>291</v>
       </c>
@@ -19385,7 +19409,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -19459,7 +19483,7 @@
         <v>181.72201609378649</v>
       </c>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -19533,7 +19557,7 @@
         <v>93.519325040968766</v>
       </c>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>294</v>
       </c>
@@ -19607,7 +19631,7 @@
         <v>107.65134153720579</v>
       </c>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>295</v>
       </c>
@@ -19681,7 +19705,7 @@
         <v>63.398724019874003</v>
       </c>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>296</v>
       </c>
@@ -19755,7 +19779,7 @@
         <v>183.865241897505</v>
       </c>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>297</v>
       </c>
@@ -19829,7 +19853,7 @@
         <v>158.79539554183609</v>
       </c>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>298</v>
       </c>
@@ -19903,7 +19927,7 @@
         <v>321.42531823602383</v>
       </c>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>299</v>
       </c>
@@ -19977,7 +20001,7 @@
         <v>235.8484406452483</v>
       </c>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>300</v>
       </c>
@@ -20051,7 +20075,7 @@
         <v>119.99861314036259</v>
       </c>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>301</v>
       </c>
@@ -20125,7 +20149,7 @@
         <v>112.7404507272969</v>
       </c>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>302</v>
       </c>
@@ -20199,7 +20223,7 @@
         <v>93.289993233538326</v>
       </c>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>303</v>
       </c>
@@ -20273,7 +20297,7 @@
         <v>158.69111367478939</v>
       </c>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>304</v>
       </c>
@@ -20347,7 +20371,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>305</v>
       </c>
@@ -20421,7 +20445,7 @@
         <v>75.980599764319308</v>
       </c>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>306</v>
       </c>
@@ -20495,7 +20519,7 @@
         <v>93.862919356907469</v>
       </c>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>307</v>
       </c>
@@ -20569,7 +20593,7 @@
         <v>164.55043870642501</v>
       </c>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>308</v>
       </c>
@@ -20643,7 +20667,7 @@
         <v>219.314429688708</v>
       </c>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>309</v>
       </c>
@@ -20717,7 +20741,7 @@
         <v>162.70199029458669</v>
       </c>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>310</v>
       </c>
@@ -20791,7 +20815,7 @@
         <v>113.37610900108371</v>
       </c>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>311</v>
       </c>
@@ -20865,7 +20889,7 @@
         <v>144.51016470945731</v>
       </c>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>312</v>
       </c>
@@ -20939,7 +20963,7 @@
         <v>128.59148019201839</v>
       </c>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>313</v>
       </c>
@@ -21013,7 +21037,7 @@
         <v>319.70678369270291</v>
       </c>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>314</v>
       </c>
@@ -21087,7 +21111,7 @@
         <v>359.56457024134892</v>
       </c>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>315</v>
       </c>
@@ -21161,7 +21185,7 @@
         <v>127.5429905466479</v>
       </c>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>316</v>
       </c>
@@ -21235,7 +21259,7 @@
         <v>101.5961138983731</v>
       </c>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>317</v>
       </c>
@@ -21309,7 +21333,7 @@
         <v>125.68081368499119</v>
       </c>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>318</v>
       </c>
@@ -21383,7 +21407,7 @@
         <v>90.450109897248026</v>
       </c>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>319</v>
       </c>
@@ -21457,7 +21481,7 @@
         <v>199.18272244396229</v>
       </c>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -21531,7 +21555,7 @@
         <v>160.77552295627481</v>
       </c>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>321</v>
       </c>
@@ -21605,7 +21629,7 @@
         <v>145.52001052953301</v>
       </c>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>322</v>
       </c>
@@ -21685,7 +21709,7 @@
         <v>294.58927871678992</v>
       </c>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>323</v>
       </c>
@@ -21759,7 +21783,7 @@
         <v>161.81907022621249</v>
       </c>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>324</v>
       </c>
@@ -21833,7 +21857,7 @@
         <v>227.13025173710801</v>
       </c>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>325</v>
       </c>
@@ -21907,7 +21931,7 @@
         <v>156.20783990869691</v>
       </c>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>326</v>
       </c>
@@ -21981,7 +22005,7 @@
         <v>131.70476850044261</v>
       </c>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>327</v>
       </c>
@@ -22055,7 +22079,7 @@
         <v>54.798189839000607</v>
       </c>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>328</v>
       </c>
@@ -22129,7 +22153,7 @@
         <v>141.06474602801629</v>
       </c>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>329</v>
       </c>
@@ -22203,7 +22227,7 @@
         <v>98.916045986685234</v>
       </c>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -22277,7 +22301,7 @@
         <v>112.77870302183899</v>
       </c>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>331</v>
       </c>
@@ -22351,7 +22375,7 @@
         <v>83.073261537092876</v>
       </c>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>332</v>
       </c>
@@ -22425,7 +22449,7 @@
         <v>104.86313573951701</v>
       </c>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>333</v>
       </c>
@@ -22499,7 +22523,7 @@
         <v>110.8963640356049</v>
       </c>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>334</v>
       </c>
@@ -22573,7 +22597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>335</v>
       </c>
@@ -22647,7 +22671,7 @@
         <v>208.7105631978016</v>
       </c>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>336</v>
       </c>
@@ -22721,7 +22745,7 @@
         <v>604.47974213244242</v>
       </c>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>337</v>
       </c>
@@ -22795,7 +22819,7 @@
         <v>254.8331705024672</v>
       </c>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>338</v>
       </c>
@@ -22869,7 +22893,7 @@
         <v>123.2791326554748</v>
       </c>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>339</v>
       </c>
@@ -22943,7 +22967,7 @@
         <v>233.5254162607676</v>
       </c>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>340</v>
       </c>
@@ -23017,7 +23041,7 @@
         <v>94.35512167785518</v>
       </c>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>341</v>
       </c>
@@ -23091,7 +23115,7 @@
         <v>116.3898143290761</v>
       </c>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>342</v>
       </c>
@@ -23165,7 +23189,7 @@
         <v>183.5637787596705</v>
       </c>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>343</v>
       </c>
@@ -23245,7 +23269,7 @@
         <v>159.54593055397669</v>
       </c>
     </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>344</v>
       </c>
@@ -23319,7 +23343,7 @@
         <v>310.79411385385231</v>
       </c>
     </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>345</v>
       </c>
@@ -23393,7 +23417,7 @@
         <v>255.59605471350821</v>
       </c>
     </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>346</v>
       </c>
@@ -23467,7 +23491,7 @@
         <v>172.97357725085391</v>
       </c>
     </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>347</v>
       </c>
@@ -23541,7 +23565,7 @@
         <v>220.1306276887405</v>
       </c>
     </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>348</v>
       </c>
@@ -23615,7 +23639,7 @@
         <v>51.663406581690772</v>
       </c>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>349</v>
       </c>
@@ -23689,7 +23713,7 @@
         <v>153.8028903011531</v>
       </c>
     </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>350</v>
       </c>
@@ -23763,7 +23787,7 @@
         <v>134.719465679199</v>
       </c>
     </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>351</v>
       </c>
@@ -23837,7 +23861,7 @@
         <v>70.498446328980037</v>
       </c>
     </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>353</v>
       </c>
@@ -23911,7 +23935,7 @@
         <v>105.59319519629349</v>
       </c>
     </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>354</v>
       </c>
@@ -23985,7 +24009,7 @@
         <v>79.241719040456346</v>
       </c>
     </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>355</v>
       </c>
@@ -24059,7 +24083,7 @@
         <v>208.10724036819281</v>
       </c>
     </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>356</v>
       </c>
@@ -24133,7 +24157,7 @@
         <v>205.10651242689701</v>
       </c>
     </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>357</v>
       </c>
@@ -24207,7 +24231,7 @@
         <v>228.5951995222843</v>
       </c>
     </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>358</v>
       </c>
@@ -24281,7 +24305,7 @@
         <v>172.44588346019941</v>
       </c>
     </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -24355,7 +24379,7 @@
         <v>178.73468050110691</v>
       </c>
     </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>360</v>
       </c>
@@ -24429,7 +24453,7 @@
         <v>410.48192930725912</v>
       </c>
     </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>361</v>
       </c>
@@ -24503,7 +24527,7 @@
         <v>256.6826712550739</v>
       </c>
     </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>362</v>
       </c>
@@ -24577,7 +24601,7 @@
         <v>201.1014580576545</v>
       </c>
     </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>363</v>
       </c>
@@ -24651,7 +24675,7 @@
         <v>317.69347175750158</v>
       </c>
     </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>364</v>
       </c>
@@ -24725,7 +24749,7 @@
         <v>151.0338817759577</v>
       </c>
     </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>365</v>
       </c>
@@ -24799,7 +24823,7 @@
         <v>147.57998293367629</v>
       </c>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>366</v>
       </c>
@@ -24873,7 +24897,7 @@
         <v>80.631586479090217</v>
       </c>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>367</v>
       </c>
@@ -24947,7 +24971,7 @@
         <v>257.0229891062985</v>
       </c>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>368</v>
       </c>
@@ -25021,7 +25045,7 @@
         <v>66.398877863509782</v>
       </c>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>369</v>
       </c>
@@ -25095,7 +25119,7 @@
         <v>363.01258328785173</v>
       </c>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>370</v>
       </c>
@@ -25175,7 +25199,7 @@
         <v>128.48769030793119</v>
       </c>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>371</v>
       </c>
@@ -25249,7 +25273,7 @@
         <v>145.8527263908021</v>
       </c>
     </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>372</v>
       </c>
@@ -25323,7 +25347,7 @@
         <v>156.97130598034491</v>
       </c>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>373</v>
       </c>
@@ -25397,7 +25421,7 @@
         <v>140.81362161032479</v>
       </c>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>374</v>
       </c>
@@ -25471,7 +25495,7 @@
         <v>167.14765699632079</v>
       </c>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>375</v>
       </c>
@@ -25545,7 +25569,7 @@
         <v>179.70764507813541</v>
       </c>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>376</v>
       </c>
@@ -25619,7 +25643,7 @@
         <v>146.89238322553521</v>
       </c>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>377</v>
       </c>
@@ -25693,7 +25717,7 @@
         <v>272.97238765451101</v>
       </c>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>378</v>
       </c>
@@ -25767,7 +25791,7 @@
         <v>188.75536936136751</v>
       </c>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>379</v>
       </c>
@@ -25841,7 +25865,7 @@
         <v>111.04534135221979</v>
       </c>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>380</v>
       </c>
@@ -25915,7 +25939,7 @@
         <v>250.52729568043449</v>
       </c>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>381</v>
       </c>
@@ -25989,7 +26013,7 @@
         <v>185.07859506623839</v>
       </c>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>382</v>
       </c>
@@ -26063,7 +26087,7 @@
         <v>68.176176983658394</v>
       </c>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>383</v>
       </c>
@@ -26137,7 +26161,7 @@
         <v>184.82053246328701</v>
       </c>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>384</v>
       </c>
@@ -26211,7 +26235,7 @@
         <v>86.490561122003953</v>
       </c>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>385</v>
       </c>
@@ -26285,7 +26309,7 @@
         <v>207.67937186644571</v>
       </c>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>386</v>
       </c>
@@ -26359,7 +26383,7 @@
         <v>164.26222600688661</v>
       </c>
     </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>387</v>
       </c>
@@ -26433,7 +26457,7 @@
         <v>244.55196378227279</v>
       </c>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>388</v>
       </c>
@@ -26507,7 +26531,7 @@
         <v>117.11210719588679</v>
       </c>
     </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>389</v>
       </c>
@@ -26581,7 +26605,7 @@
         <v>166.28556179435839</v>
       </c>
     </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>390</v>
       </c>
@@ -26655,7 +26679,7 @@
         <v>352.12426854247701</v>
       </c>
     </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>391</v>
       </c>
@@ -26729,7 +26753,7 @@
         <v>167.37571231985919</v>
       </c>
     </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>392</v>
       </c>
@@ -26803,7 +26827,7 @@
         <v>104.5558869099884</v>
       </c>
     </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>393</v>
       </c>
@@ -26877,7 +26901,7 @@
         <v>137.58660347957351</v>
       </c>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>394</v>
       </c>
@@ -26951,7 +26975,7 @@
         <v>328.79086973804698</v>
       </c>
     </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>395</v>
       </c>
@@ -27025,7 +27049,7 @@
         <v>274.59512532087689</v>
       </c>
     </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>396</v>
       </c>
@@ -27099,7 +27123,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>397</v>
       </c>
@@ -27173,7 +27197,7 @@
         <v>134.82878072686941</v>
       </c>
     </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>398</v>
       </c>
@@ -27247,7 +27271,7 @@
         <v>68.091022095396795</v>
       </c>
     </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>399</v>
       </c>
@@ -27321,7 +27345,7 @@
         <v>158.35473396145409</v>
       </c>
     </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>400</v>
       </c>
@@ -27395,7 +27419,7 @@
         <v>122.6670370848034</v>
       </c>
     </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>401</v>
       </c>
@@ -27469,7 +27493,7 @@
         <v>105.31450796516771</v>
       </c>
     </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>402</v>
       </c>
@@ -27543,7 +27567,7 @@
         <v>197.17294077692731</v>
       </c>
     </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>403</v>
       </c>
@@ -27617,7 +27641,7 @@
         <v>100.8557100633009</v>
       </c>
     </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>404</v>
       </c>
@@ -27691,7 +27715,7 @@
         <v>184.24086243039201</v>
       </c>
     </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>405</v>
       </c>
@@ -27765,7 +27789,7 @@
         <v>186.12665075930951</v>
       </c>
     </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>406</v>
       </c>
@@ -27839,7 +27863,7 @@
         <v>176.35776208555421</v>
       </c>
     </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>407</v>
       </c>
@@ -27913,7 +27937,7 @@
         <v>347.70612532617702</v>
       </c>
     </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>408</v>
       </c>
@@ -27993,7 +28017,7 @@
         <v>164.08620844256569</v>
       </c>
     </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -28067,7 +28091,7 @@
         <v>286.45147602395218</v>
       </c>
     </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>410</v>
       </c>
@@ -28147,7 +28171,7 @@
         <v>118.31875285510441</v>
       </c>
     </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>411</v>
       </c>
@@ -28221,7 +28245,7 @@
         <v>119.8523303658659</v>
       </c>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>412</v>
       </c>
@@ -28295,7 +28319,7 @@
         <v>78.719310209583625</v>
       </c>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>413</v>
       </c>
@@ -28369,7 +28393,7 @@
         <v>204.22675066737099</v>
       </c>
     </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>414</v>
       </c>
@@ -28443,7 +28467,7 @@
         <v>215.8208972363509</v>
       </c>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>415</v>
       </c>
@@ -28517,7 +28541,7 @@
         <v>300.12961245339011</v>
       </c>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>416</v>
       </c>
@@ -28591,7 +28615,7 @@
         <v>122.1384403924194</v>
       </c>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>417</v>
       </c>
@@ -28665,7 +28689,7 @@
         <v>158.63705264943189</v>
       </c>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>418</v>
       </c>
@@ -28739,7 +28763,7 @@
         <v>80.336900889886877</v>
       </c>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>419</v>
       </c>
@@ -28813,7 +28837,7 @@
         <v>113.27434714291221</v>
       </c>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>420</v>
       </c>
@@ -28887,7 +28911,7 @@
         <v>239.05412388163541</v>
       </c>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>421</v>
       </c>
@@ -28961,7 +28985,7 @@
         <v>102.8174539377097</v>
       </c>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>422</v>
       </c>
@@ -29035,7 +29059,7 @@
         <v>467.31162519694283</v>
       </c>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>423</v>
       </c>
@@ -29109,7 +29133,7 @@
         <v>85.036676695634668</v>
       </c>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>424</v>
       </c>
@@ -29183,7 +29207,7 @@
         <v>80.906838366367666</v>
       </c>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>425</v>
       </c>
@@ -29257,7 +29281,7 @@
         <v>111.3354221618403</v>
       </c>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>426</v>
       </c>
@@ -29331,7 +29355,7 @@
         <v>103.20824801643739</v>
       </c>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>427</v>
       </c>
@@ -29405,7 +29429,7 @@
         <v>336.13846997512837</v>
       </c>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>428</v>
       </c>
@@ -29479,7 +29503,7 @@
         <v>273.45956466145083</v>
       </c>
     </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>429</v>
       </c>
@@ -29553,7 +29577,7 @@
         <v>198.7312531027672</v>
       </c>
     </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>430</v>
       </c>
@@ -29627,7 +29651,7 @@
         <v>149.47188811001021</v>
       </c>
     </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>431</v>
       </c>
@@ -29701,7 +29725,7 @@
         <v>129.98576923008969</v>
       </c>
     </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>432</v>
       </c>
@@ -29775,7 +29799,7 @@
         <v>128.006514756874</v>
       </c>
     </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>433</v>
       </c>
@@ -29849,7 +29873,7 @@
         <v>160.36782706985559</v>
       </c>
     </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>434</v>
       </c>
@@ -29923,7 +29947,7 @@
         <v>104.7791978121185</v>
       </c>
     </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>435</v>
       </c>
@@ -29997,7 +30021,7 @@
         <v>115.6244521906373</v>
       </c>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>436</v>
       </c>
@@ -30071,7 +30095,7 @@
         <v>203.07910223363899</v>
       </c>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>437</v>
       </c>
@@ -30145,7 +30169,7 @@
         <v>368.91854098832738</v>
       </c>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>438</v>
       </c>
@@ -30219,7 +30243,7 @@
         <v>177.48322310659361</v>
       </c>
     </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>439</v>
       </c>
@@ -30293,7 +30317,7 @@
         <v>176.02738915281421</v>
       </c>
     </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>440</v>
       </c>
@@ -30367,7 +30391,7 @@
         <v>133.61951815019421</v>
       </c>
     </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>441</v>
       </c>
@@ -30441,7 +30465,7 @@
         <v>112.5774123849216</v>
       </c>
     </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>442</v>
       </c>
@@ -30515,7 +30539,7 @@
         <v>109.88566799816969</v>
       </c>
     </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>443</v>
       </c>
@@ -30589,7 +30613,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>444</v>
       </c>
@@ -30663,7 +30687,7 @@
         <v>280.93192550885391</v>
       </c>
     </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>445</v>
       </c>
@@ -30737,7 +30761,7 @@
         <v>91.461622175887598</v>
       </c>
     </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>446</v>
       </c>
@@ -30811,7 +30835,7 @@
         <v>120.8448625242259</v>
       </c>
     </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>447</v>
       </c>
@@ -30885,7 +30909,7 @@
         <v>112.6162797887733</v>
       </c>
     </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>448</v>
       </c>
@@ -30959,7 +30983,7 @@
         <v>380.19715490603801</v>
       </c>
     </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>449</v>
       </c>
@@ -31033,7 +31057,7 @@
         <v>267.81347002881489</v>
       </c>
     </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>450</v>
       </c>
@@ -31107,7 +31131,7 @@
         <v>117.6913027117081</v>
       </c>
     </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>451</v>
       </c>
@@ -31187,7 +31211,7 @@
         <v>160.82176946925239</v>
       </c>
     </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>452</v>
       </c>
@@ -31261,7 +31285,7 @@
         <v>119.6452731053465</v>
       </c>
     </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>453</v>
       </c>
@@ -31335,7 +31359,7 @@
         <v>310.96619273993292</v>
       </c>
     </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>454</v>
       </c>
@@ -31415,7 +31439,7 @@
         <v>148.04820016338081</v>
       </c>
     </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>455</v>
       </c>
@@ -31489,7 +31513,7 @@
         <v>91.264648152826624</v>
       </c>
     </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>456</v>
       </c>
@@ -31563,7 +31587,7 @@
         <v>70.219008987203779</v>
       </c>
     </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>457</v>
       </c>
@@ -31637,7 +31661,7 @@
         <v>331.24295307467662</v>
       </c>
     </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>458</v>
       </c>
@@ -31711,7 +31735,7 @@
         <v>251.38739848099121</v>
       </c>
     </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>459</v>
       </c>
@@ -31785,7 +31809,7 @@
         <v>113.50523221044919</v>
       </c>
     </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>460</v>
       </c>
@@ -31859,7 +31883,7 @@
         <v>100.0218275806631</v>
       </c>
     </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>461</v>
       </c>
@@ -31933,7 +31957,7 @@
         <v>174.93910184496499</v>
       </c>
     </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>462</v>
       </c>
@@ -32007,7 +32031,7 @@
         <v>103.58738187400949</v>
       </c>
     </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>463</v>
       </c>
@@ -32081,7 +32105,7 @@
         <v>131.64434735445479</v>
       </c>
     </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>464</v>
       </c>
@@ -32155,7 +32179,7 @@
         <v>164.8018880358089</v>
       </c>
     </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>465</v>
       </c>
@@ -32229,7 +32253,7 @@
         <v>157.50424449717059</v>
       </c>
     </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>466</v>
       </c>
@@ -32303,7 +32327,7 @@
         <v>124.0600440897384</v>
       </c>
     </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>467</v>
       </c>
@@ -32377,7 +32401,7 @@
         <v>116.9630688995401</v>
       </c>
     </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>468</v>
       </c>
@@ -32451,7 +32475,7 @@
         <v>109.5817955680559</v>
       </c>
     </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>469</v>
       </c>
@@ -32525,7 +32549,7 @@
         <v>102.8648015024018</v>
       </c>
     </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>470</v>
       </c>
@@ -32599,7 +32623,7 @@
         <v>98.140645234237923</v>
       </c>
     </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>471</v>
       </c>
@@ -32673,7 +32697,7 @@
         <v>256.02957986103138</v>
       </c>
     </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>472</v>
       </c>
@@ -32747,7 +32771,7 @@
         <v>100.56491121448271</v>
       </c>
     </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>473</v>
       </c>
@@ -32821,7 +32845,7 @@
         <v>199.9237757209462</v>
       </c>
     </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>474</v>
       </c>
@@ -32895,7 +32919,7 @@
         <v>189.671614604957</v>
       </c>
     </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>475</v>
       </c>
@@ -32969,7 +32993,7 @@
         <v>142.5404215414307</v>
       </c>
     </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>476</v>
       </c>
@@ -33043,7 +33067,7 @@
         <v>101.86802926362169</v>
       </c>
     </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>477</v>
       </c>
@@ -33123,7 +33147,7 @@
         <v>143.33988151007929</v>
       </c>
     </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>478</v>
       </c>
@@ -33197,7 +33221,7 @@
         <v>120.12298883268819</v>
       </c>
     </row>
-    <row r="418" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>479</v>
       </c>
@@ -33271,7 +33295,7 @@
         <v>42.709565296662319</v>
       </c>
     </row>
-    <row r="419" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>480</v>
       </c>
@@ -33345,7 +33369,7 @@
         <v>174.5550212269026</v>
       </c>
     </row>
-    <row r="420" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>481</v>
       </c>
@@ -33419,7 +33443,7 @@
         <v>427.640121407636</v>
       </c>
     </row>
-    <row r="421" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>482</v>
       </c>
@@ -33493,7 +33517,7 @@
         <v>130.9224736629171</v>
       </c>
     </row>
-    <row r="422" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>483</v>
       </c>
@@ -33567,7 +33591,7 @@
         <v>167.95957613329401</v>
       </c>
     </row>
-    <row r="423" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>484</v>
       </c>
@@ -33641,7 +33665,7 @@
         <v>194.10294307307379</v>
       </c>
     </row>
-    <row r="424" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>485</v>
       </c>
@@ -33715,7 +33739,7 @@
         <v>202.3787822842373</v>
       </c>
     </row>
-    <row r="425" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>486</v>
       </c>
@@ -33789,7 +33813,7 @@
         <v>98.736023193239902</v>
       </c>
     </row>
-    <row r="426" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>487</v>
       </c>
@@ -33863,7 +33887,7 @@
         <v>64.31187028180635</v>
       </c>
     </row>
-    <row r="427" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>488</v>
       </c>
@@ -33937,7 +33961,7 @@
         <v>125.05208232116139</v>
       </c>
     </row>
-    <row r="428" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>489</v>
       </c>
@@ -34011,7 +34035,7 @@
         <v>145.8235296196118</v>
       </c>
     </row>
-    <row r="429" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>490</v>
       </c>
@@ -34085,7 +34109,7 @@
         <v>196.1737779293214</v>
       </c>
     </row>
-    <row r="430" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>491</v>
       </c>
@@ -34159,7 +34183,7 @@
         <v>176.98963725077621</v>
       </c>
     </row>
-    <row r="431" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>492</v>
       </c>
@@ -34233,7 +34257,7 @@
         <v>656.88713612601521</v>
       </c>
     </row>
-    <row r="432" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>493</v>
       </c>
@@ -34307,7 +34331,7 @@
         <v>77.282803270654384</v>
       </c>
     </row>
-    <row r="433" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>494</v>
       </c>
@@ -34381,7 +34405,7 @@
         <v>577.61723937745774</v>
       </c>
     </row>
-    <row r="434" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>495</v>
       </c>
@@ -34455,7 +34479,7 @@
         <v>129.00715442397311</v>
       </c>
     </row>
-    <row r="435" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>496</v>
       </c>
@@ -34529,7 +34553,7 @@
         <v>168.31114946813489</v>
       </c>
     </row>
-    <row r="436" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>497</v>
       </c>
@@ -34603,7 +34627,7 @@
         <v>125.15525761138601</v>
       </c>
     </row>
-    <row r="437" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>498</v>
       </c>
@@ -34677,7 +34701,7 @@
         <v>134.7199520729915</v>
       </c>
     </row>
-    <row r="438" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>499</v>
       </c>
@@ -34751,7 +34775,7 @@
         <v>280.25283617012178</v>
       </c>
     </row>
-    <row r="439" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>500</v>
       </c>
@@ -34831,7 +34855,7 @@
         <v>239.93825631582629</v>
       </c>
     </row>
-    <row r="440" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>501</v>
       </c>
@@ -34905,7 +34929,7 @@
         <v>247.8567154150798</v>
       </c>
     </row>
-    <row r="441" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>502</v>
       </c>
@@ -34979,7 +35003,7 @@
         <v>137.05384145008131</v>
       </c>
     </row>
-    <row r="442" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>503</v>
       </c>
@@ -35053,7 +35077,7 @@
         <v>134.14087677905101</v>
       </c>
     </row>
-    <row r="443" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>504</v>
       </c>
@@ -35127,7 +35151,7 @@
         <v>576.49501570761265</v>
       </c>
     </row>
-    <row r="444" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>505</v>
       </c>
@@ -35201,7 +35225,7 @@
         <v>244.68128012185991</v>
       </c>
     </row>
-    <row r="445" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>506</v>
       </c>
@@ -35275,7 +35299,7 @@
         <v>139.40018044413699</v>
       </c>
     </row>
-    <row r="446" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>507</v>
       </c>
@@ -35349,7 +35373,7 @@
         <v>562.89458642860859</v>
       </c>
     </row>
-    <row r="447" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>508</v>
       </c>
@@ -35423,7 +35447,7 @@
         <v>161.4088543386959</v>
       </c>
     </row>
-    <row r="448" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>509</v>
       </c>
@@ -35497,7 +35521,7 @@
         <v>360.98296661041621</v>
       </c>
     </row>
-    <row r="449" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>510</v>
       </c>
@@ -35571,7 +35595,7 @@
         <v>769.32437483065701</v>
       </c>
     </row>
-    <row r="450" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>511</v>
       </c>
@@ -35645,7 +35669,7 @@
         <v>326.16304159293878</v>
       </c>
     </row>
-    <row r="451" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>512</v>
       </c>
@@ -35719,7 +35743,7 @@
         <v>709.82514616928893</v>
       </c>
     </row>
-    <row r="452" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>513</v>
       </c>
@@ -35793,7 +35817,7 @@
         <v>594.03073802994425</v>
       </c>
     </row>
-    <row r="453" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>514</v>
       </c>
@@ -35867,7 +35891,7 @@
         <v>260.11087882441421</v>
       </c>
     </row>
-    <row r="454" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>515</v>
       </c>
@@ -35941,7 +35965,7 @@
         <v>204.42506922971759</v>
       </c>
     </row>
-    <row r="455" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>516</v>
       </c>
@@ -36015,7 +36039,7 @@
         <v>884.85383954248869</v>
       </c>
     </row>
-    <row r="456" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>517</v>
       </c>
@@ -36089,7 +36113,7 @@
         <v>261.62706174559571</v>
       </c>
     </row>
-    <row r="457" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>518</v>
       </c>
@@ -36163,7 +36187,7 @@
         <v>257.57095449932228</v>
       </c>
     </row>
-    <row r="458" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>519</v>
       </c>
@@ -36237,7 +36261,7 @@
         <v>217.51610061209001</v>
       </c>
     </row>
-    <row r="459" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>520</v>
       </c>
@@ -36311,7 +36335,7 @@
         <v>76.699022146797731</v>
       </c>
     </row>
-    <row r="460" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>521</v>
       </c>
@@ -36385,7 +36409,7 @@
         <v>492.66338266344451</v>
       </c>
     </row>
-    <row r="461" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>522</v>
       </c>
@@ -36459,7 +36483,7 @@
         <v>377.34587269362328</v>
       </c>
     </row>
-    <row r="462" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>523</v>
       </c>
@@ -36533,7 +36557,7 @@
         <v>346.97417119513858</v>
       </c>
     </row>
-    <row r="463" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>524</v>
       </c>
@@ -36607,7 +36631,7 @@
         <v>234.45940943050229</v>
       </c>
     </row>
-    <row r="464" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>525</v>
       </c>
@@ -36681,7 +36705,7 @@
         <v>890.58721531387141</v>
       </c>
     </row>
-    <row r="465" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>526</v>
       </c>
@@ -36761,7 +36785,7 @@
         <v>938.95175486162361</v>
       </c>
     </row>
-    <row r="466" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>527</v>
       </c>
@@ -36835,7 +36859,7 @@
         <v>332.30902259543518</v>
       </c>
     </row>
-    <row r="467" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>528</v>
       </c>
@@ -36909,7 +36933,7 @@
         <v>1275.2214856402429</v>
       </c>
     </row>
-    <row r="468" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>529</v>
       </c>
@@ -36983,7 +37007,7 @@
         <v>175.85286349090171</v>
       </c>
     </row>
-    <row r="469" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>530</v>
       </c>
@@ -37057,7 +37081,7 @@
         <v>266.40911398325488</v>
       </c>
     </row>
-    <row r="470" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>531</v>
       </c>
@@ -37131,7 +37155,7 @@
         <v>318.12006564944869</v>
       </c>
     </row>
-    <row r="471" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>532</v>
       </c>
@@ -37205,7 +37229,7 @@
         <v>530.29594710740059</v>
       </c>
     </row>
-    <row r="472" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>533</v>
       </c>
@@ -37279,7 +37303,7 @@
         <v>291.51868575342672</v>
       </c>
     </row>
-    <row r="473" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>534</v>
       </c>
@@ -37353,7 +37377,7 @@
         <v>167.0698122398918</v>
       </c>
     </row>
-    <row r="474" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>535</v>
       </c>
@@ -37427,7 +37451,7 @@
         <v>717.37780014292821</v>
       </c>
     </row>
-    <row r="475" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>536</v>
       </c>
@@ -37501,7 +37525,7 @@
         <v>291.13928676522801</v>
       </c>
     </row>
-    <row r="476" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>537</v>
       </c>
@@ -37575,7 +37599,7 @@
         <v>419.09035913258231</v>
       </c>
     </row>
-    <row r="477" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>538</v>
       </c>
@@ -37649,7 +37673,7 @@
         <v>205.93983911928569</v>
       </c>
     </row>
-    <row r="478" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>539</v>
       </c>
@@ -37723,7 +37747,7 @@
         <v>589.53376492028917</v>
       </c>
     </row>
-    <row r="479" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>540</v>
       </c>
@@ -37797,7 +37821,7 @@
         <v>476.23689015763432</v>
       </c>
     </row>
-    <row r="480" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>541</v>
       </c>
@@ -37871,7 +37895,7 @@
         <v>128.95010514721491</v>
       </c>
     </row>
-    <row r="481" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>542</v>
       </c>
@@ -37945,7 +37969,7 @@
         <v>455.05554627272278</v>
       </c>
     </row>
-    <row r="482" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>543</v>
       </c>
@@ -38019,7 +38043,7 @@
         <v>200.25379990695191</v>
       </c>
     </row>
-    <row r="483" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>544</v>
       </c>
@@ -38093,7 +38117,7 @@
         <v>220.17683914012781</v>
       </c>
     </row>
-    <row r="484" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>545</v>
       </c>
@@ -38167,7 +38191,7 @@
         <v>273.05106908205579</v>
       </c>
     </row>
-    <row r="485" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>546</v>
       </c>
@@ -38241,7 +38265,7 @@
         <v>338.24870098237488</v>
       </c>
     </row>
-    <row r="486" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>547</v>
       </c>
@@ -38321,7 +38345,7 @@
         <v>346.45806139834309</v>
       </c>
     </row>
-    <row r="487" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>548</v>
       </c>
@@ -38395,7 +38419,7 @@
         <v>610.72570654230105</v>
       </c>
     </row>
-    <row r="488" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>549</v>
       </c>
@@ -38469,7 +38493,7 @@
         <v>74.462584452840204</v>
       </c>
     </row>
-    <row r="489" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>550</v>
       </c>
@@ -38543,7 +38567,7 @@
         <v>68.438792592746978</v>
       </c>
     </row>
-    <row r="490" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>551</v>
       </c>
@@ -38617,7 +38641,7 @@
         <v>1846.912880948908</v>
       </c>
     </row>
-    <row r="491" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>552</v>
       </c>
@@ -38691,7 +38715,7 @@
         <v>196.23266519311019</v>
       </c>
     </row>
-    <row r="492" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>553</v>
       </c>
@@ -38765,7 +38789,7 @@
         <v>368.26714457750887</v>
       </c>
     </row>
-    <row r="493" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>554</v>
       </c>
@@ -38839,7 +38863,7 @@
         <v>205.90239378153049</v>
       </c>
     </row>
-    <row r="494" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>555</v>
       </c>
@@ -38913,7 +38937,7 @@
         <v>272.37987906568941</v>
       </c>
     </row>
-    <row r="495" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>556</v>
       </c>
@@ -38987,7 +39011,7 @@
         <v>610.95179160044552</v>
       </c>
     </row>
-    <row r="496" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>557</v>
       </c>
@@ -39061,7 +39085,7 @@
         <v>294.61958362903971</v>
       </c>
     </row>
-    <row r="497" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>558</v>
       </c>
@@ -39135,7 +39159,7 @@
         <v>488.01097607631499</v>
       </c>
     </row>
-    <row r="498" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>559</v>
       </c>
@@ -39209,7 +39233,7 @@
         <v>271.24556793803009</v>
       </c>
     </row>
-    <row r="499" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>560</v>
       </c>
@@ -39283,7 +39307,7 @@
         <v>315.50136481190958</v>
       </c>
     </row>
-    <row r="500" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>561</v>
       </c>
@@ -39357,7 +39381,7 @@
         <v>489.88324296407399</v>
       </c>
     </row>
-    <row r="501" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>562</v>
       </c>
@@ -39431,7 +39455,7 @@
         <v>419.75801656991518</v>
       </c>
     </row>
-    <row r="502" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>563</v>
       </c>
@@ -39505,7 +39529,7 @@
         <v>675.86293134114726</v>
       </c>
     </row>
-    <row r="503" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>564</v>
       </c>
@@ -39576,7 +39600,7 @@
         <v>221.9</v>
       </c>
     </row>
-    <row r="504" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>565</v>
       </c>
@@ -39647,7 +39671,7 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="505" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>566</v>
       </c>
@@ -39718,7 +39742,7 @@
         <v>373.2</v>
       </c>
     </row>
-    <row r="506" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>567</v>
       </c>
@@ -39789,7 +39813,7 @@
         <v>334.4</v>
       </c>
     </row>
-    <row r="507" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>568</v>
       </c>
@@ -39860,7 +39884,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="508" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>569</v>
       </c>
@@ -39931,7 +39955,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="509" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>570</v>
       </c>
@@ -40002,7 +40026,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="510" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>571</v>
       </c>
@@ -40073,7 +40097,7 @@
         <v>186.9</v>
       </c>
     </row>
-    <row r="511" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>572</v>
       </c>
@@ -40144,7 +40168,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="512" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>573</v>
       </c>
@@ -40215,7 +40239,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="513" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>574</v>
       </c>
@@ -40286,7 +40310,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="514" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>575</v>
       </c>
@@ -40357,7 +40381,7 @@
         <v>443.2</v>
       </c>
     </row>
-    <row r="515" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>576</v>
       </c>
@@ -40428,7 +40452,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="516" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>577</v>
       </c>
@@ -40499,7 +40523,7 @@
         <v>385.1</v>
       </c>
     </row>
-    <row r="517" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>578</v>
       </c>
@@ -40570,7 +40594,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="518" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>579</v>
       </c>
@@ -40632,7 +40656,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="519" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>580</v>
       </c>
@@ -40694,7 +40718,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="520" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>581</v>
       </c>
@@ -40756,7 +40780,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="521" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>582</v>
       </c>
@@ -40818,7 +40842,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>583</v>
       </c>
@@ -40880,7 +40904,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="523" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>584</v>
       </c>
@@ -40942,7 +40966,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="524" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>585</v>
       </c>
@@ -41014,23 +41038,23 @@
   <dimension ref="A1:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>586</v>
       </c>
@@ -41065,7 +41089,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -41094,7 +41118,7 @@
         <v>5.8015544931899998E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -41123,7 +41147,7 @@
         <v>9.6508057018E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -41152,7 +41176,7 @@
         <v>2.73418275323E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -41181,7 +41205,7 @@
         <v>7.8208445960099831E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -41210,7 +41234,7 @@
         <v>4.8803138640900003E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -41239,7 +41263,7 @@
         <v>4.5772452714199999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -41268,7 +41292,7 @@
         <v>2.7100937330249998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -41297,7 +41321,7 @@
         <v>1.6911331882E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -41326,7 +41350,7 @@
         <v>3.5805035357E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -41355,7 +41379,7 @@
         <v>4.3154926073E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -41384,7 +41408,7 @@
         <v>3.9427656465000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -41413,7 +41437,7 @@
         <v>1.07371505319E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -41442,7 +41466,7 @@
         <v>8.7252349845781624E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -41471,7 +41495,7 @@
         <v>4.0918772749201421E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -41500,7 +41524,7 @@
         <v>1.8496827311000001E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -41529,7 +41553,7 @@
         <v>1.9480748580630999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -41558,7 +41582,7 @@
         <v>8.8177095147191006E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -41587,7 +41611,7 @@
         <v>6.4346291937300001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -41616,7 +41640,7 @@
         <v>1.9153746934600001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -41645,7 +41669,7 @@
         <v>2.0391679819040001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -41674,7 +41698,7 @@
         <v>1.5496563398999999E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -41703,7 +41727,7 @@
         <v>2.2199479240599999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -41732,7 +41756,7 @@
         <v>3.8964954185369998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -41761,7 +41785,7 @@
         <v>7.4165643625130001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -41790,7 +41814,7 @@
         <v>4.4726956232941997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -41819,7 +41843,7 @@
         <v>2.4158742630999998E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -41848,7 +41872,7 @@
         <v>6.6318186376146803E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -41877,7 +41901,7 @@
         <v>2.0486266160238031E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -41906,7 +41930,7 @@
         <v>8.2192784735000005E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -41935,7 +41959,7 @@
         <v>3.9591539003300002E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -41964,7 +41988,7 @@
         <v>4.5798636068348562E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -41993,7 +42017,7 @@
         <v>1.1689978265000001E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -42022,7 +42046,7 @@
         <v>4.9387665236999997E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -42051,7 +42075,7 @@
         <v>4.7242896167000001E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -42080,7 +42104,7 @@
         <v>1.4716136003299201E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -42109,7 +42133,7 @@
         <v>8.35263550538E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -42138,7 +42162,7 @@
         <v>5.0715393295200001E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -42167,7 +42191,7 @@
         <v>8.4539570875200002E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -42196,7 +42220,7 @@
         <v>3.7688504885000002E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -42225,7 +42249,7 @@
         <v>6.55820165556E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -42254,7 +42278,7 @@
         <v>2.1613939720199999E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -42283,7 +42307,7 @@
         <v>4.0380836245000004E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -42312,7 +42336,7 @@
         <v>3.8248782395000001E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -42341,7 +42365,7 @@
         <v>1.06015871502E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -42370,7 +42394,7 @@
         <v>3.7212025427999999E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -42399,7 +42423,7 @@
         <v>8.7991828880392906E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -42428,7 +42452,7 @@
         <v>6.2665480824999999E-6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -42457,7 +42481,7 @@
         <v>1.46189554794E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -42486,7 +42510,7 @@
         <v>1.9347105883082E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -42515,7 +42539,7 @@
         <v>4.99063536175E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -42544,7 +42568,7 @@
         <v>1.3098607888300001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -42573,7 +42597,7 @@
         <v>2.196722996779E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -42602,7 +42626,7 @@
         <v>3.3503160743E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -42631,7 +42655,7 @@
         <v>9.2107933472000002E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -42660,7 +42684,7 @@
         <v>3.4233651710688417E-7</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -42689,7 +42713,7 @@
         <v>1.000648918457E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -42718,7 +42742,7 @@
         <v>0.17359217574649441</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -42747,7 +42771,7 @@
         <v>1.5901982927900001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -42776,7 +42800,7 @@
         <v>8.6455204076600004E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -42805,7 +42829,7 @@
         <v>1.7112683716544601E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -42834,7 +42858,7 @@
         <v>1.5462857564000001E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -42863,7 +42887,7 @@
         <v>2.486144304331E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -42892,7 +42916,7 @@
         <v>7.0676169191999997E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -42921,7 +42945,7 @@
         <v>1.7833868195659999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -42950,7 +42974,7 @@
         <v>5.9888355950999997E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -42979,7 +43003,7 @@
         <v>2.882046739006E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -43008,7 +43032,7 @@
         <v>6.4652525492E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -43037,7 +43061,7 @@
         <v>3.0934242562818E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -43066,7 +43090,7 @@
         <v>1.9037448312900001E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -43095,7 +43119,7 @@
         <v>1.051371075349E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -43124,7 +43148,7 @@
         <v>7.7576671834999997E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -43153,7 +43177,7 @@
         <v>5.4140132631666015E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -43182,7 +43206,7 @@
         <v>1.3908236196299999E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -43211,7 +43235,7 @@
         <v>4.7028487276000004E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -43240,7 +43264,7 @@
         <v>1.2479252524319999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -43269,7 +43293,7 @@
         <v>4.1075603869E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -43298,7 +43322,7 @@
         <v>1.2958940414570001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -43327,7 +43351,7 @@
         <v>3.2605516999019998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -43356,7 +43380,7 @@
         <v>9.1943353814100004E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -43385,7 +43409,7 @@
         <v>5.6960019282040002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -43414,7 +43438,7 @@
         <v>1.0902608306823001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -43443,7 +43467,7 @@
         <v>1.2772195215181499E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -43472,7 +43496,7 @@
         <v>3.2061823726097999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -43501,7 +43525,7 @@
         <v>1.043349821627E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -43530,7 +43554,7 @@
         <v>9.2111666096800004E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -43559,7 +43583,7 @@
         <v>6.9065767307399995E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -43588,7 +43612,7 @@
         <v>1.77420590374E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -43617,7 +43641,7 @@
         <v>5.5178511766000001E-6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -43646,7 +43670,7 @@
         <v>1.3696336755E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -43675,7 +43699,7 @@
         <v>5.0607735615706122E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -43704,7 +43728,7 @@
         <v>6.9114160532200003E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -43733,7 +43757,7 @@
         <v>9.9033674897499999E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -43762,7 +43786,7 @@
         <v>1.3124838950000001E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -43791,7 +43815,7 @@
         <v>1.70586072647E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -43820,7 +43844,7 @@
         <v>1.5430233983539999E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -43849,7 +43873,7 @@
         <v>1.8171073377883E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -43878,7 +43902,7 @@
         <v>7.8078914660699997E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -43907,7 +43931,7 @@
         <v>7.1844350652749999E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -43936,7 +43960,7 @@
         <v>5.2081644023000002E-6</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -43965,7 +43989,7 @@
         <v>7.6549703204687496E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -43994,7 +44018,7 @@
         <v>1.6477832833E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -44023,7 +44047,7 @@
         <v>2.1611081462209001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -44052,7 +44076,7 @@
         <v>3.0945827335999999E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -44081,7 +44105,7 @@
         <v>0.47889414748770293</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -44110,7 +44134,7 @@
         <v>3.5248385503999999E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -44139,7 +44163,7 @@
         <v>1.3991550662000001E-6</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -44168,7 +44192,7 @@
         <v>1.5103195804599999E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -44197,7 +44221,7 @@
         <v>5.9749543297700001E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -44226,7 +44250,7 @@
         <v>3.9566594743700002E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -44255,7 +44279,7 @@
         <v>1.805473391291E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -44284,7 +44308,7 @@
         <v>9.9324681823551442E-7</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -44313,7 +44337,7 @@
         <v>2.6588617055000001E-6</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -44342,7 +44366,7 @@
         <v>1.5080986800000001E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -44371,7 +44395,7 @@
         <v>4.4415104463100002E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -44400,7 +44424,7 @@
         <v>1.0748293680910001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -44429,7 +44453,7 @@
         <v>4.4438995514999998E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -44458,7 +44482,7 @@
         <v>2.8501254113999999E-6</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -44487,7 +44511,7 @@
         <v>4.0219492387543491E-7</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -44516,7 +44540,7 @@
         <v>7.4882478330999998E-6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -44545,7 +44569,7 @@
         <v>3.6136275016499998E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>182</v>
       </c>
@@ -44574,7 +44598,7 @@
         <v>1.7008262964930802E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -44603,7 +44627,7 @@
         <v>1.3408938342399999E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -44632,7 +44656,7 @@
         <v>4.1263121081600002E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>185</v>
       </c>
@@ -44661,7 +44685,7 @@
         <v>1.5784966336499999E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -44690,7 +44714,7 @@
         <v>6.6759966709799994E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -44719,7 +44743,7 @@
         <v>9.8769095475799998E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -44748,7 +44772,7 @@
         <v>5.2855060560000004E-6</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -44777,7 +44801,7 @@
         <v>1.6682980087999999E-6</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -44806,7 +44830,7 @@
         <v>6.9742996452000003E-6</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -44835,7 +44859,7 @@
         <v>2.8529888129699999E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -44864,7 +44888,7 @@
         <v>1.1555764376999999E-5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -44893,7 +44917,7 @@
         <v>2.5360932261140001E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -44922,7 +44946,7 @@
         <v>2.54182212105408E-7</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -44951,7 +44975,7 @@
         <v>4.016430217E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -44980,7 +45004,7 @@
         <v>4.0029302716091996E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -45009,7 +45033,7 @@
         <v>3.5177626176863701E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -45038,7 +45062,7 @@
         <v>5.1009844220000004E-6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -45067,7 +45091,7 @@
         <v>1.0058044202144001E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -45096,7 +45120,7 @@
         <v>3.2164753939999999E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -45125,7 +45149,7 @@
         <v>3.3008102031727667E-7</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -45154,7 +45178,7 @@
         <v>1.33125035564E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -45183,7 +45207,7 @@
         <v>2.1876952685000002E-6</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -45212,7 +45236,7 @@
         <v>1.3088693685000001E-6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -45241,7 +45265,7 @@
         <v>7.6532795663999993E-6</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -45270,7 +45294,7 @@
         <v>7.5328378324659995E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -45299,7 +45323,7 @@
         <v>7.9516161925566098E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -45328,7 +45352,7 @@
         <v>3.1424632475800001E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -45357,7 +45381,7 @@
         <v>8.5217234062700002E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -45386,7 +45410,7 @@
         <v>2.7499995383980001E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -45415,7 +45439,7 @@
         <v>3.2937340897E-5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -45444,7 +45468,7 @@
         <v>1.7415900170199999E-5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -45473,7 +45497,7 @@
         <v>2.6985084406099999E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -45502,7 +45526,7 @@
         <v>2.91140115123E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -45531,7 +45555,7 @@
         <v>9.3345337541000001E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -45560,7 +45584,7 @@
         <v>9.6396623854299996E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -45589,7 +45613,7 @@
         <v>9.5685812084599995E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -45618,7 +45642,7 @@
         <v>1.6324537510654E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -45647,7 +45671,7 @@
         <v>2.68693688664E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -45676,7 +45700,7 @@
         <v>4.8516630430528998E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -45705,7 +45729,7 @@
         <v>2.3444953043999999E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -45734,7 +45758,7 @@
         <v>1.8806604287809E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -45763,7 +45787,7 @@
         <v>3.072480105E-6</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -45792,7 +45816,7 @@
         <v>5.8948119937000004E-6</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -45821,7 +45845,7 @@
         <v>1.8294156441879001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -45850,7 +45874,7 @@
         <v>7.1853775556999997E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -45879,7 +45903,7 @@
         <v>4.2419239414900003E-5</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>228</v>
       </c>
@@ -45908,7 +45932,7 @@
         <v>2.5657684790399999E-5</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>229</v>
       </c>
@@ -45937,7 +45961,7 @@
         <v>5.6441128400700002E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -45966,7 +45990,7 @@
         <v>9.5766154421523999E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -45995,7 +46019,7 @@
         <v>2.1514571169999998E-6</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -46024,7 +46048,7 @@
         <v>1.405503965076E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>233</v>
       </c>
@@ -46053,7 +46077,7 @@
         <v>1.71086964053E-5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>234</v>
       </c>
@@ -46082,7 +46106,7 @@
         <v>2.4141198865E-5</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>235</v>
       </c>
@@ -46111,7 +46135,7 @@
         <v>5.6624699861901146E-7</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -46140,7 +46164,7 @@
         <v>2.6782170544000002E-6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>237</v>
       </c>
@@ -46169,7 +46193,7 @@
         <v>4.9331365154501004E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>238</v>
       </c>
@@ -46198,7 +46222,7 @@
         <v>9.8485291562000007E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -46227,7 +46251,7 @@
         <v>8.33206848718E-5</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>240</v>
       </c>
@@ -46256,7 +46280,7 @@
         <v>4.756518199035665E-7</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>241</v>
       </c>
@@ -46285,7 +46309,7 @@
         <v>2.1248240066999999E-6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>242</v>
       </c>
@@ -46314,7 +46338,7 @@
         <v>2.7339079771300002E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -46343,7 +46367,7 @@
         <v>1.000779349167E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>244</v>
       </c>
@@ -46372,7 +46396,7 @@
         <v>5.7588292568999997E-6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -46401,7 +46425,7 @@
         <v>1.864759159758E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>246</v>
       </c>
@@ -46430,7 +46454,7 @@
         <v>3.67075229331E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>247</v>
       </c>
@@ -46459,7 +46483,7 @@
         <v>1.7986994405467499E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
@@ -46488,7 +46512,7 @@
         <v>3.6494145715800001E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -46517,7 +46541,7 @@
         <v>1.7883988415116001E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -46546,7 +46570,7 @@
         <v>5.396730138887808E-7</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>251</v>
       </c>
@@ -46575,7 +46599,7 @@
         <v>4.7314119600000003E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -46604,7 +46628,7 @@
         <v>9.1910980640479006E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>253</v>
       </c>
@@ -46633,7 +46657,7 @@
         <v>4.2098321665800003E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>254</v>
       </c>
@@ -46662,7 +46686,7 @@
         <v>1.18960987694E-5</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -46691,7 +46715,7 @@
         <v>6.4997381808179998E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -46720,7 +46744,7 @@
         <v>1.8699107451299999E-5</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -46749,7 +46773,7 @@
         <v>1.9952871466061999E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -46778,7 +46802,7 @@
         <v>4.0231993678299998E-5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -46807,7 +46831,7 @@
         <v>7.0083346324399998E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -46836,7 +46860,7 @@
         <v>3.3202180213E-6</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -46865,7 +46889,7 @@
         <v>2.1417326415999999E-6</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -46894,7 +46918,7 @@
         <v>2.7054136732399998E-5</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -46923,7 +46947,7 @@
         <v>1.1000536828499999E-5</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -46952,7 +46976,7 @@
         <v>6.5630287255940005E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>265</v>
       </c>
@@ -46981,7 +47005,7 @@
         <v>3.4414537235439999E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -47010,7 +47034,7 @@
         <v>4.4011057675320001E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -47039,7 +47063,7 @@
         <v>1.97416005569763E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -47068,7 +47092,7 @@
         <v>1.3755153597E-6</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -47097,7 +47121,7 @@
         <v>2.4712161024259999E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -47126,7 +47150,7 @@
         <v>6.295573961279E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -47155,7 +47179,7 @@
         <v>1.8715588828799999E-5</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -47184,7 +47208,7 @@
         <v>1.0811819425829999E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -47213,7 +47237,7 @@
         <v>1.5141154885799999E-5</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -47242,7 +47266,7 @@
         <v>7.5687400656E-6</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -47271,7 +47295,7 @@
         <v>1.0440533109002999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -47300,7 +47324,7 @@
         <v>7.5057744306399998E-5</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -47329,7 +47353,7 @@
         <v>7.1807134389999999E-6</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -47358,7 +47382,7 @@
         <v>2.9843632499887099E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -47387,7 +47411,7 @@
         <v>1.0276466984799999E-5</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -47416,7 +47440,7 @@
         <v>2.0144075841E-6</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>281</v>
       </c>
@@ -47445,7 +47469,7 @@
         <v>1.8035316324300002E-5</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>282</v>
       </c>
@@ -47474,7 +47498,7 @@
         <v>1.09814660261E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -47503,7 +47527,7 @@
         <v>1.28790172552E-5</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -47532,7 +47556,7 @@
         <v>2.4874221170039998E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>286</v>
       </c>
@@ -47561,7 +47585,7 @@
         <v>1.0245266344551199E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -47590,7 +47614,7 @@
         <v>1.7513180576000001E-6</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -47619,7 +47643,7 @@
         <v>6.5056406801000001E-6</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>289</v>
       </c>
@@ -47648,7 +47672,7 @@
         <v>9.1739816259999998E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>290</v>
       </c>
@@ -47677,7 +47701,7 @@
         <v>6.3783802735545625E-7</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>291</v>
       </c>
@@ -47706,7 +47730,7 @@
         <v>3.7923149361369999E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>292</v>
       </c>
@@ -47735,7 +47759,7 @@
         <v>3.7217963605000002E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -47764,7 +47788,7 @@
         <v>1.8898775482865001E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -47793,7 +47817,7 @@
         <v>3.9727880884999996E-6</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>295</v>
       </c>
@@ -47822,7 +47846,7 @@
         <v>4.1849909231999997E-6</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>296</v>
       </c>
@@ -47851,7 +47875,7 @@
         <v>2.0895500325999999E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>297</v>
       </c>
@@ -47880,7 +47904,7 @@
         <v>1.8820078150369999E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>298</v>
       </c>
@@ -47909,7 +47933,7 @@
         <v>8.4481093553999992E-6</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>299</v>
       </c>
@@ -47938,7 +47962,7 @@
         <v>4.0102628557890001E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -47967,7 +47991,7 @@
         <v>2.5293791672881E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>301</v>
       </c>
@@ -47996,7 +48020,7 @@
         <v>8.5518905532000007E-6</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>302</v>
       </c>
@@ -48025,7 +48049,7 @@
         <v>3.51648129074369E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>303</v>
       </c>
@@ -48054,7 +48078,7 @@
         <v>1.7485145376999999E-5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>304</v>
       </c>
@@ -48083,7 +48107,7 @@
         <v>1.8995128959000001E-6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>305</v>
       </c>
@@ -48112,7 +48136,7 @@
         <v>9.0953121268000007E-6</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>306</v>
       </c>
@@ -48141,7 +48165,7 @@
         <v>7.5020118104699994E-5</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>307</v>
       </c>
@@ -48170,7 +48194,7 @@
         <v>1.1705538231E-6</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>308</v>
       </c>
@@ -48199,7 +48223,7 @@
         <v>1.11816580635211E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>309</v>
       </c>
@@ -48228,7 +48252,7 @@
         <v>0.15704501475503049</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>310</v>
       </c>
@@ -48257,7 +48281,7 @@
         <v>1.275279765473E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>311</v>
       </c>
@@ -48286,7 +48310,7 @@
         <v>3.2712279926369999E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>312</v>
       </c>
@@ -48315,7 +48339,7 @@
         <v>2.5554076758169998E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>313</v>
       </c>
@@ -48344,7 +48368,7 @@
         <v>1.7948206336E-6</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>314</v>
       </c>
@@ -48373,7 +48397,7 @@
         <v>1.0248725457E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>315</v>
       </c>
@@ -48402,7 +48426,7 @@
         <v>3.4799749595000002E-6</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>316</v>
       </c>
@@ -48431,7 +48455,7 @@
         <v>1.3846273470757E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>317</v>
       </c>
@@ -48460,7 +48484,7 @@
         <v>1.8830704717700002E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>318</v>
       </c>
@@ -48489,7 +48513,7 @@
         <v>1.3097839921849999E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>319</v>
       </c>
@@ -48518,7 +48542,7 @@
         <v>1.8162365168400001E-5</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>320</v>
       </c>
@@ -48547,7 +48571,7 @@
         <v>2.538152129E-6</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>321</v>
       </c>
@@ -48576,7 +48600,7 @@
         <v>1.9259366338739999E-4</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>322</v>
       </c>
@@ -48605,7 +48629,7 @@
         <v>4.0233240704999997E-6</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>323</v>
       </c>
@@ -48634,7 +48658,7 @@
         <v>3.9550490758560002E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>324</v>
       </c>
@@ -48663,7 +48687,7 @@
         <v>1.2796441842269999E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>325</v>
       </c>
@@ -48692,7 +48716,7 @@
         <v>3.2335715658799997E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>326</v>
       </c>
@@ -48721,7 +48745,7 @@
         <v>1.3142299025999999E-6</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>327</v>
       </c>
@@ -48750,7 +48774,7 @@
         <v>1.3969273364999999E-6</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>328</v>
       </c>
@@ -48779,7 +48803,7 @@
         <v>2.6381724529000001E-6</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -48808,7 +48832,7 @@
         <v>1.5949791272800001E-5</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>330</v>
       </c>
@@ -48837,7 +48861,7 @@
         <v>1.0203011281900001E-5</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
@@ -48866,7 +48890,7 @@
         <v>8.6706749131750006E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -48895,7 +48919,7 @@
         <v>2.0143409795000002E-6</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>333</v>
       </c>
@@ -48924,7 +48948,7 @@
         <v>7.8646675393517999E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>334</v>
       </c>
@@ -48953,7 +48977,7 @@
         <v>7.7936964023839997E-4</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>335</v>
       </c>
@@ -48982,7 +49006,7 @@
         <v>6.4349694735781647E-7</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>336</v>
       </c>
@@ -49011,7 +49035,7 @@
         <v>6.0503898006999999E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>337</v>
       </c>
@@ -49040,7 +49064,7 @@
         <v>4.6009346829700003E-5</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>338</v>
       </c>
@@ -49069,7 +49093,7 @@
         <v>1.8759174732139999E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>339</v>
       </c>
@@ -49098,7 +49122,7 @@
         <v>2.5285225480899999E-5</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>340</v>
       </c>
@@ -49127,7 +49151,7 @@
         <v>1.6757002886722001E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>341</v>
       </c>
@@ -49156,7 +49180,7 @@
         <v>8.6955253576191576E-7</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>342</v>
       </c>
@@ -49185,7 +49209,7 @@
         <v>1.24213322931E-5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>343</v>
       </c>
@@ -49214,7 +49238,7 @@
         <v>1.2302916860706999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>344</v>
       </c>
@@ -49243,7 +49267,7 @@
         <v>2.7338462841E-6</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>345</v>
       </c>
@@ -49272,7 +49296,7 @@
         <v>1.6676253302999999E-6</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>346</v>
       </c>
@@ -49301,7 +49325,7 @@
         <v>8.5604873786999992E-6</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>347</v>
       </c>
@@ -49330,7 +49354,7 @@
         <v>2.1933859106499998E-5</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>348</v>
       </c>
@@ -49359,7 +49383,7 @@
         <v>2.3609315039500001E-5</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>349</v>
       </c>
@@ -49388,7 +49412,7 @@
         <v>2.8754578944360001E-4</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>350</v>
       </c>
@@ -49417,7 +49441,7 @@
         <v>2.6189015183693998E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>351</v>
       </c>
@@ -49446,7 +49470,7 @@
         <v>1.4877387121749999E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>353</v>
       </c>
@@ -49475,7 +49499,7 @@
         <v>4.0290283643000003E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>354</v>
       </c>
@@ -49504,7 +49528,7 @@
         <v>5.7289397359999996E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -49533,7 +49557,7 @@
         <v>1.273582958E-6</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>356</v>
       </c>
@@ -49562,7 +49586,7 @@
         <v>0.1857327122738098</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>357</v>
       </c>
@@ -49591,7 +49615,7 @@
         <v>9.8478794891645321E-7</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>358</v>
       </c>
@@ -49620,7 +49644,7 @@
         <v>3.7257173428999998E-6</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -49649,7 +49673,7 @@
         <v>1.8264573409399999E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>360</v>
       </c>
@@ -49678,7 +49702,7 @@
         <v>2.73707271615E-5</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>361</v>
       </c>
@@ -49707,7 +49731,7 @@
         <v>1.3659376345890001E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>362</v>
       </c>
@@ -49736,7 +49760,7 @@
         <v>2.8896303341399999E-5</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>363</v>
       </c>
@@ -49765,7 +49789,7 @@
         <v>5.8434590064000001E-6</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>364</v>
       </c>
@@ -49794,7 +49818,7 @@
         <v>1.0556930090999999E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>365</v>
       </c>
@@ -49823,7 +49847,7 @@
         <v>7.5670120841642843E-7</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>366</v>
       </c>
@@ -49852,7 +49876,7 @@
         <v>4.1408522965000004E-6</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>367</v>
       </c>
@@ -49881,7 +49905,7 @@
         <v>8.6870111065491734E-7</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>368</v>
       </c>
@@ -49910,7 +49934,7 @@
         <v>2.6717827237800001E-5</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>369</v>
       </c>
@@ -49939,7 +49963,7 @@
         <v>1.07993858761E-5</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>370</v>
       </c>
@@ -49968,7 +49992,7 @@
         <v>8.8573517968060705E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>371</v>
       </c>
@@ -49997,7 +50021,7 @@
         <v>1.00362271235E-5</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>372</v>
       </c>
@@ -50026,7 +50050,7 @@
         <v>3.6270923306090002E-4</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>373</v>
       </c>
@@ -50055,7 +50079,7 @@
         <v>3.2188996487000001E-6</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>374</v>
       </c>
@@ -50084,7 +50108,7 @@
         <v>2.2892094143218501E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>375</v>
       </c>
@@ -50113,7 +50137,7 @@
         <v>9.5902233255796809E-7</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>376</v>
       </c>
@@ -50142,7 +50166,7 @@
         <v>3.9105936780019999E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>377</v>
       </c>
@@ -50171,7 +50195,7 @@
         <v>7.4275419164051004E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -50200,7 +50224,7 @@
         <v>7.3632517842500003E-5</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>379</v>
       </c>
@@ -50229,7 +50253,7 @@
         <v>1.91308329064E-5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>380</v>
       </c>
@@ -50258,7 +50282,7 @@
         <v>2.9863164311800001E-5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>381</v>
       </c>
@@ -50287,7 +50311,7 @@
         <v>8.1257380289500002E-5</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>382</v>
       </c>
@@ -50316,7 +50340,7 @@
         <v>4.0563874776999999E-6</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>383</v>
       </c>
@@ -50345,7 +50369,7 @@
         <v>4.5432585474000001E-6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>384</v>
       </c>
@@ -50374,7 +50398,7 @@
         <v>9.6573262578700006E-5</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>385</v>
       </c>
@@ -50403,7 +50427,7 @@
         <v>5.3960157953431998E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>386</v>
       </c>
@@ -50432,7 +50456,7 @@
         <v>9.6236061759999992E-6</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>387</v>
       </c>
@@ -50461,7 +50485,7 @@
         <v>3.2290526782999998E-6</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>388</v>
       </c>
@@ -50490,7 +50514,7 @@
         <v>2.0156051891959601E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>389</v>
       </c>
@@ -50519,7 +50543,7 @@
         <v>3.0701870942545301E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>390</v>
       </c>
@@ -50548,7 +50572,7 @@
         <v>1.29391013625E-5</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>391</v>
       </c>
@@ -50577,7 +50601,7 @@
         <v>2.3954537981999998E-6</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>392</v>
       </c>
@@ -50606,7 +50630,7 @@
         <v>6.20946473067E-5</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>393</v>
       </c>
@@ -50635,7 +50659,7 @@
         <v>1.011286624959E-4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>394</v>
       </c>
@@ -50664,7 +50688,7 @@
         <v>4.5521199578537662E-7</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>395</v>
       </c>
@@ -50693,7 +50717,7 @@
         <v>4.3563388493000003E-6</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>396</v>
       </c>
@@ -50722,7 +50746,7 @@
         <v>9.6949460988600004E-5</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>397</v>
       </c>
@@ -50751,7 +50775,7 @@
         <v>1.3640839893299999E-5</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>398</v>
       </c>
@@ -50780,7 +50804,7 @@
         <v>8.2552929335000002E-6</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>399</v>
       </c>
@@ -50809,7 +50833,7 @@
         <v>5.8020559078999998E-6</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>400</v>
       </c>
@@ -50838,7 +50862,7 @@
         <v>1.8262279708E-6</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>401</v>
       </c>
@@ -50867,7 +50891,7 @@
         <v>3.7873385614E-6</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>402</v>
       </c>
@@ -50896,7 +50920,7 @@
         <v>8.2117739519180005E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>403</v>
       </c>
@@ -50925,7 +50949,7 @@
         <v>2.1102731846177499E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>404</v>
       </c>
@@ -50954,7 +50978,7 @@
         <v>3.7239307650400002E-5</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>405</v>
       </c>
@@ -50983,7 +51007,7 @@
         <v>8.6796865035299996E-5</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>406</v>
       </c>
@@ -51012,7 +51036,7 @@
         <v>4.5896792715055083E-7</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>407</v>
       </c>
@@ -51041,7 +51065,7 @@
         <v>3.0101581305740002E-4</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>408</v>
       </c>
@@ -51070,7 +51094,7 @@
         <v>9.4086982581000003E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -51099,7 +51123,7 @@
         <v>2.2310842740479999E-4</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>410</v>
       </c>
@@ -51128,7 +51152,7 @@
         <v>1.1419473729400001E-5</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>411</v>
       </c>
@@ -51157,7 +51181,7 @@
         <v>4.2811163870999997E-6</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>412</v>
       </c>
@@ -51186,7 +51210,7 @@
         <v>2.88037397872E-5</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>413</v>
       </c>
@@ -51215,7 +51239,7 @@
         <v>1.7393912595309999E-4</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>414</v>
       </c>
@@ -51244,7 +51268,7 @@
         <v>2.47412625628E-4</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>415</v>
       </c>
@@ -51273,7 +51297,7 @@
         <v>4.0278955552559999E-4</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>416</v>
       </c>
@@ -51302,7 +51326,7 @@
         <v>9.8392947900999998E-6</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>417</v>
       </c>
@@ -51331,7 +51355,7 @@
         <v>5.9304738071918402E-7</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>418</v>
       </c>
@@ -51360,7 +51384,7 @@
         <v>1.0513947693799999E-5</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>419</v>
       </c>
@@ -51389,7 +51413,7 @@
         <v>5.7673907564000003E-6</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>420</v>
       </c>
@@ -51418,7 +51442,7 @@
         <v>2.5982750626970001E-4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>421</v>
       </c>
@@ -51447,7 +51471,7 @@
         <v>8.9166583574014999E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>422</v>
       </c>
@@ -51476,7 +51500,7 @@
         <v>2.69659738771E-5</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>423</v>
       </c>
@@ -51505,7 +51529,7 @@
         <v>6.4511458388389897E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>424</v>
       </c>
@@ -51534,7 +51558,7 @@
         <v>3.6808573682969999E-4</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>425</v>
       </c>
@@ -51563,7 +51587,7 @@
         <v>5.5158531128676998E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>426</v>
       </c>
@@ -51592,7 +51616,7 @@
         <v>5.9399597598999997E-6</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>427</v>
       </c>
@@ -51621,7 +51645,7 @@
         <v>1.3790644896060001E-4</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>428</v>
       </c>
@@ -51650,7 +51674,7 @@
         <v>5.6473858112000002E-5</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>429</v>
       </c>
@@ -51679,7 +51703,7 @@
         <v>2.9099862164322398E-7</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>430</v>
       </c>
@@ -51708,7 +51732,7 @@
         <v>3.2406872936000002E-5</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>431</v>
       </c>
@@ -51737,7 +51761,7 @@
         <v>1.678219359087E-4</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>432</v>
       </c>
@@ -51766,7 +51790,7 @@
         <v>3.0927502391099998E-5</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>433</v>
       </c>
@@ -51795,7 +51819,7 @@
         <v>6.3886937254390005E-4</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>434</v>
       </c>
@@ -51824,7 +51848,7 @@
         <v>4.2213219091089002E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>435</v>
       </c>
@@ -51853,7 +51877,7 @@
         <v>5.8033862107287723E-7</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>436</v>
       </c>
@@ -51882,7 +51906,7 @@
         <v>3.0770850070110001E-4</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>437</v>
       </c>
@@ -51911,7 +51935,7 @@
         <v>5.5146199027E-6</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>438</v>
       </c>
@@ -51940,7 +51964,7 @@
         <v>1.6599805183242999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>439</v>
       </c>
@@ -51969,7 +51993,7 @@
         <v>1.0020615079400001E-5</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>440</v>
       </c>
@@ -51998,7 +52022,7 @@
         <v>8.2374365806979998E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>441</v>
       </c>
@@ -52027,7 +52051,7 @@
         <v>8.2614091750743955E-7</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>442</v>
       </c>
@@ -52056,7 +52080,7 @@
         <v>1.1862444393199999E-5</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>443</v>
       </c>
@@ -52085,7 +52109,7 @@
         <v>8.4483886225950001E-4</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>444</v>
       </c>
@@ -52114,7 +52138,7 @@
         <v>3.7580254995400001E-5</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>445</v>
       </c>
@@ -52143,7 +52167,7 @@
         <v>4.0127895476850002E-4</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>446</v>
       </c>
@@ -52172,7 +52196,7 @@
         <v>3.8501332276867002E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>447</v>
       </c>
@@ -52201,7 +52225,7 @@
         <v>7.0168022448000002E-6</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>448</v>
       </c>
@@ -52230,7 +52254,7 @@
         <v>1.6081905245799999E-5</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>449</v>
       </c>
@@ -52259,7 +52283,7 @@
         <v>2.49251671318E-5</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>450</v>
       </c>
@@ -52288,7 +52312,7 @@
         <v>4.5297124116599997E-5</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>451</v>
       </c>
@@ -52317,7 +52341,7 @@
         <v>2.9217550945844E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>452</v>
       </c>
@@ -52346,7 +52370,7 @@
         <v>4.5022746946499997E-5</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>453</v>
       </c>
@@ -52375,7 +52399,7 @@
         <v>4.3008923860999998E-6</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>454</v>
       </c>
@@ -52404,7 +52428,7 @@
         <v>1.3358847891469999E-4</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>455</v>
       </c>
@@ -52433,7 +52457,7 @@
         <v>1.4585767143880001E-4</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>456</v>
       </c>
@@ -52462,7 +52486,7 @@
         <v>1.072880074896E-4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>457</v>
       </c>
@@ -52491,7 +52515,7 @@
         <v>3.1132542112699999E-5</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>458</v>
       </c>
@@ -52520,7 +52544,7 @@
         <v>1.88083108939E-5</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>459</v>
       </c>
@@ -52549,7 +52573,7 @@
         <v>1.3890671777049999E-4</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>460</v>
       </c>
@@ -52578,7 +52602,7 @@
         <v>7.9464736101000005E-6</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>461</v>
       </c>
@@ -52607,7 +52631,7 @@
         <v>8.1744405227920003E-4</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>462</v>
       </c>
@@ -52636,7 +52660,7 @@
         <v>0.30930259301555452</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>463</v>
       </c>
@@ -52665,7 +52689,7 @@
         <v>8.3053863310799997E-5</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>464</v>
       </c>
@@ -52694,7 +52718,7 @@
         <v>5.0420422821999998E-6</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>465</v>
       </c>
@@ -52723,7 +52747,7 @@
         <v>7.894319806994242E-7</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>466</v>
       </c>
@@ -52752,7 +52776,7 @@
         <v>1.38757709641E-5</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>467</v>
       </c>
@@ -52781,7 +52805,7 @@
         <v>4.1962133225194202E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>468</v>
       </c>
@@ -52810,7 +52834,7 @@
         <v>1.5134435234000001E-6</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>469</v>
       </c>
@@ -52839,7 +52863,7 @@
         <v>2.7237380055000001E-6</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>470</v>
       </c>
@@ -52868,7 +52892,7 @@
         <v>2.5658315271400001E-5</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>471</v>
       </c>
@@ -52897,7 +52921,7 @@
         <v>1.1585814299704001E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>472</v>
       </c>
@@ -52926,7 +52950,7 @@
         <v>2.55136344665E-5</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>473</v>
       </c>
@@ -52955,7 +52979,7 @@
         <v>5.4487232140999996E-6</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>474</v>
       </c>
@@ -52984,7 +53008,7 @@
         <v>3.3051766818799999E-5</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>475</v>
       </c>
@@ -53013,7 +53037,7 @@
         <v>7.5495540829790002E-4</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>476</v>
       </c>
@@ -53042,7 +53066,7 @@
         <v>7.3406321391000002E-6</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>477</v>
       </c>
@@ -53071,7 +53095,7 @@
         <v>7.7327683790000005E-6</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>478</v>
       </c>
@@ -53100,7 +53124,7 @@
         <v>3.1121582864E-6</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>479</v>
       </c>
@@ -53129,7 +53153,7 @@
         <v>2.4369437401899998E-5</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>480</v>
       </c>
@@ -53158,7 +53182,7 @@
         <v>5.2825080039999996E-6</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>481</v>
       </c>
@@ -53187,7 +53211,7 @@
         <v>1.2660731354E-6</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>482</v>
       </c>
@@ -53216,7 +53240,7 @@
         <v>8.6012797033999993E-6</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>483</v>
       </c>
@@ -53245,7 +53269,7 @@
         <v>3.4167791390200002E-5</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>484</v>
       </c>
@@ -53274,7 +53298,7 @@
         <v>9.1821276481100005E-5</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>485</v>
       </c>
@@ -53303,7 +53327,7 @@
         <v>4.9649017963590003E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>486</v>
       </c>
@@ -53332,7 +53356,7 @@
         <v>6.7763277913999998E-6</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>487</v>
       </c>
@@ -53361,7 +53385,7 @@
         <v>1.175889012264E-4</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>488</v>
       </c>
@@ -53390,7 +53414,7 @@
         <v>7.4518101686E-6</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>489</v>
       </c>
@@ -53419,7 +53443,7 @@
         <v>4.8753909563289998E-4</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>490</v>
       </c>
@@ -53448,7 +53472,7 @@
         <v>4.6698140497999999E-6</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>491</v>
       </c>
@@ -53477,7 +53501,7 @@
         <v>1.5369745591999999E-6</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>492</v>
       </c>
@@ -53506,7 +53530,7 @@
         <v>2.4684472974800001E-5</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>493</v>
       </c>
@@ -53535,7 +53559,7 @@
         <v>7.1114124423700005E-5</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>494</v>
       </c>
@@ -53564,7 +53588,7 @@
         <v>7.2012231486999999E-4</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>495</v>
       </c>
@@ -53593,7 +53617,7 @@
         <v>1.3081226204209999E-4</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>496</v>
       </c>
@@ -53622,7 +53646,7 @@
         <v>1.0238045576470001E-4</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>497</v>
       </c>
@@ -53651,7 +53675,7 @@
         <v>1.4962825987299999E-5</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>498</v>
       </c>
@@ -53680,7 +53704,7 @@
         <v>3.78823002237E-5</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>499</v>
       </c>
@@ -53709,7 +53733,7 @@
         <v>2.0812339955499999E-5</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>500</v>
       </c>
@@ -53738,7 +53762,7 @@
         <v>1.1232757575000001E-6</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>501</v>
       </c>
@@ -53767,7 +53791,7 @@
         <v>2.27555877333789E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>502</v>
       </c>
@@ -53796,7 +53820,7 @@
         <v>8.4456426953500002E-4</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>503</v>
       </c>
@@ -53825,7 +53849,7 @@
         <v>2.411356279719E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>504</v>
       </c>
@@ -53854,7 +53878,7 @@
         <v>7.0110419272499997E-5</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>505</v>
       </c>
@@ -53883,7 +53907,7 @@
         <v>2.0782119836800001E-5</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>506</v>
       </c>
@@ -53912,7 +53936,7 @@
         <v>7.0502429923000004E-6</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>507</v>
       </c>
@@ -53941,7 +53965,7 @@
         <v>7.1681798412899996E-5</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>508</v>
       </c>
@@ -53970,7 +53994,7 @@
         <v>6.6069336032399998E-4</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>509</v>
       </c>
@@ -53999,7 +54023,7 @@
         <v>1.6160588929331999E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>510</v>
       </c>
@@ -54028,7 +54052,7 @@
         <v>5.6148483071999997E-6</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>511</v>
       </c>
@@ -54057,7 +54081,7 @@
         <v>8.2168583412189997E-4</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>512</v>
       </c>
@@ -54086,7 +54110,7 @@
         <v>7.6508422507699997E-4</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>513</v>
       </c>
@@ -54115,7 +54139,7 @@
         <v>1.8262813669231381E-7</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>514</v>
       </c>
@@ -54144,7 +54168,7 @@
         <v>1.859056531449E-4</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>515</v>
       </c>
@@ -54173,7 +54197,7 @@
         <v>3.48821188032E-5</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>516</v>
       </c>
@@ -54202,7 +54226,7 @@
         <v>1.049644118429E-4</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>517</v>
       </c>
@@ -54231,7 +54255,7 @@
         <v>3.6264343527699997E-5</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>518</v>
       </c>
@@ -54260,7 +54284,7 @@
         <v>3.8182082023430002E-4</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>519</v>
       </c>
@@ -54289,7 +54313,7 @@
         <v>1.2764811719739999E-4</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>520</v>
       </c>
@@ -54318,7 +54342,7 @@
         <v>0.72299526537282188</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>521</v>
       </c>
@@ -54347,7 +54371,7 @@
         <v>1.3573137090979999E-4</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>522</v>
       </c>
@@ -54376,7 +54400,7 @@
         <v>0.13387238126767589</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>523</v>
       </c>
@@ -54405,7 +54429,7 @@
         <v>9.9494759355199996E-5</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>524</v>
       </c>
@@ -54434,7 +54458,7 @@
         <v>1.887838232088E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>525</v>
       </c>
@@ -54463,7 +54487,7 @@
         <v>0.14338460171198261</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>526</v>
       </c>
@@ -54492,7 +54516,7 @@
         <v>9.4087800940811997E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>527</v>
       </c>
@@ -54521,7 +54545,7 @@
         <v>1.8765854889400001E-5</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>528</v>
       </c>
@@ -54550,7 +54574,7 @@
         <v>6.8146075224000002E-6</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>529</v>
       </c>
@@ -54579,7 +54603,7 @@
         <v>7.2603471208197998E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>530</v>
       </c>
@@ -54608,7 +54632,7 @@
         <v>2.4944802501640002E-4</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>531</v>
       </c>
@@ -54637,7 +54661,7 @@
         <v>2.8777009788550002E-4</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>532</v>
       </c>
@@ -54666,7 +54690,7 @@
         <v>2.2474926906425E-3</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>533</v>
       </c>
@@ -54695,7 +54719,7 @@
         <v>2.4128176149329E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>534</v>
       </c>
@@ -54724,7 +54748,7 @@
         <v>7.6862817541800005E-4</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>535</v>
       </c>
@@ -54753,7 +54777,7 @@
         <v>3.9003513684913602E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>536</v>
       </c>
@@ -54782,7 +54806,7 @@
         <v>3.2885757985268E-3</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>537</v>
       </c>
@@ -54811,7 +54835,7 @@
         <v>1.0192853177200001E-5</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>538</v>
       </c>
@@ -54840,7 +54864,7 @@
         <v>2.7720788847899998E-5</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>539</v>
       </c>
@@ -54869,7 +54893,7 @@
         <v>5.0838090469230003E-4</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>540</v>
       </c>
@@ -54898,7 +54922,7 @@
         <v>5.5559082547889998E-4</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>541</v>
       </c>
@@ -54927,7 +54951,7 @@
         <v>1.37159531325E-5</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>542</v>
       </c>
@@ -54956,7 +54980,7 @@
         <v>3.5568103717266001E-3</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>543</v>
       </c>
@@ -54985,7 +55009,7 @@
         <v>5.3269926067899998E-5</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>544</v>
       </c>
@@ -55014,7 +55038,7 @@
         <v>1.3717860370099999E-5</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>545</v>
       </c>
@@ -55043,7 +55067,7 @@
         <v>8.4254703880230005E-4</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>546</v>
       </c>
@@ -55072,7 +55096,7 @@
         <v>6.6233521746000004E-6</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>547</v>
       </c>
@@ -55101,7 +55125,7 @@
         <v>1.1080960401E-5</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>548</v>
       </c>
@@ -55130,7 +55154,7 @@
         <v>3.0383541770000001E-6</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>549</v>
       </c>
@@ -55159,7 +55183,7 @@
         <v>1.8754031018440001E-4</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>550</v>
       </c>
@@ -55188,7 +55212,7 @@
         <v>1.9593849998715998E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>551</v>
       </c>
@@ -55217,7 +55241,7 @@
         <v>0.1245206920293143</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>552</v>
       </c>
@@ -55246,7 +55270,7 @@
         <v>6.2949458732899997E-5</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>553</v>
       </c>
@@ -55275,7 +55299,7 @@
         <v>1.2771763966939E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>554</v>
       </c>
@@ -55304,7 +55328,7 @@
         <v>1.9175014725499999E-5</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>555</v>
       </c>
@@ -55333,7 +55357,7 @@
         <v>1.9141140058321999E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>556</v>
       </c>
@@ -55362,7 +55386,7 @@
         <v>0.2372953412130093</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>557</v>
       </c>
@@ -55391,7 +55415,7 @@
         <v>3.7581360775234998E-3</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>558</v>
       </c>
@@ -55420,7 +55444,7 @@
         <v>9.1419032918740005E-4</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>559</v>
       </c>
@@ -55449,7 +55473,7 @@
         <v>7.0449892715590003E-4</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>560</v>
       </c>
@@ -55478,7 +55502,7 @@
         <v>1.3712563592194001E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>561</v>
       </c>
@@ -55507,7 +55531,7 @@
         <v>1.46352460547E-5</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>562</v>
       </c>
@@ -55536,7 +55560,7 @@
         <v>9.2732027357000006E-6</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>563</v>
       </c>
@@ -55565,7 +55589,7 @@
         <v>8.8775493481964996E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>564</v>
       </c>
@@ -55594,7 +55618,7 @@
         <v>1.0191945624207E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>565</v>
       </c>
@@ -55623,7 +55647,7 @@
         <v>3.5124395574480998E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>566</v>
       </c>
@@ -55652,7 +55676,7 @@
         <v>4.1331700001029999E-4</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>567</v>
       </c>
@@ -55681,7 +55705,7 @@
         <v>0.2273233447400205</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>568</v>
       </c>
@@ -55710,7 +55734,7 @@
         <v>2.8159825104929998E-4</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>569</v>
       </c>
@@ -55739,7 +55763,7 @@
         <v>0.2307998013087012</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>570</v>
       </c>
@@ -55768,7 +55792,7 @@
         <v>4.6727864528899E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>571</v>
       </c>
@@ -55797,7 +55821,7 @@
         <v>0.353224145517957</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>572</v>
       </c>
@@ -55826,7 +55850,7 @@
         <v>0.13937725411395541</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>573</v>
       </c>
@@ -55855,7 +55879,7 @@
         <v>0.66476830780919482</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>574</v>
       </c>
@@ -55884,7 +55908,7 @@
         <v>0.45406269841061619</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>575</v>
       </c>
@@ -55913,7 +55937,7 @@
         <v>0.106360806639393</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>576</v>
       </c>
@@ -55942,7 +55966,7 @@
         <v>0.1760888096781644</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>577</v>
       </c>
@@ -55971,7 +55995,7 @@
         <v>0.98854224719957762</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>578</v>
       </c>
@@ -56002,6 +56026,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K516" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>